--- a/WBS(WorkBreakdownStructure).xlsx
+++ b/WBS(WorkBreakdownStructure).xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hjhjh\Desktop\2020뉴딜_공간정보SW\프로젝트\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ParkBox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A11130E-0084-4AB8-BACD-397F25384AE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011DBB6F-5C07-4FCE-8901-107861A099ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="800" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1128,7 +1128,7 @@
     <t>11월 1일</t>
   </si>
   <si>
-    <t>11월 1일</t>
+    <t>10월 30일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1945,7 +1945,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2081,6 +2081,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4193,7 +4199,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4512,9 +4518,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -4524,6 +4527,96 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="62" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="62" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="19" borderId="67" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="19" borderId="67" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="19" borderId="67" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="67" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="69" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="236" fontId="85" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="85" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="87" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4563,6 +4656,33 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="88" fillId="6" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="6" borderId="62" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="6" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="6" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="6" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="6" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="6" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="6" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4611,55 +4731,10 @@
     <xf numFmtId="0" fontId="92" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="88" fillId="6" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="88" fillId="6" borderId="62" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="6" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="6" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="6" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="6" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="6" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="6" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="107" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4668,76 +4743,10 @@
     <xf numFmtId="0" fontId="107" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="84" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="62" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="62" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="93" fillId="19" borderId="67" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="93" fillId="19" borderId="67" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="19" borderId="67" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="67" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="69" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="236" fontId="85" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="85" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="87" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5625,7 +5634,289 @@
     <cellStyle name="화폐기호" xfId="726" xr:uid="{00000000-0005-0000-0000-00006E030000}"/>
     <cellStyle name="화폐기호0" xfId="727" xr:uid="{00000000-0005-0000-0000-00006F030000}"/>
   </cellStyles>
-  <dxfs count="71">
+  <dxfs count="110">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -6535,7 +6826,7 @@
       </c>
       <c r="M1" s="56">
         <f ca="1">TODAY()</f>
-        <v>44132</v>
+        <v>44135</v>
       </c>
       <c r="N1" s="55"/>
       <c r="O1" s="57"/>
@@ -6544,34 +6835,34 @@
       <c r="R1" s="23"/>
     </row>
     <row r="2" spans="2:18" ht="17.25" thickBot="1">
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="139" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="114" t="s">
+      <c r="C2" s="140"/>
+      <c r="D2" s="143" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="114" t="s">
+      <c r="E2" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="116" t="s">
+      <c r="F2" s="145" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="117"/>
-      <c r="L2" s="117"/>
-      <c r="M2" s="117"/>
-      <c r="N2" s="117"/>
-      <c r="O2" s="118"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="146"/>
+      <c r="L2" s="146"/>
+      <c r="M2" s="146"/>
+      <c r="N2" s="146"/>
+      <c r="O2" s="147"/>
     </row>
     <row r="3" spans="2:18" ht="17.25" thickBot="1">
-      <c r="B3" s="112"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
+      <c r="B3" s="141"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="144"/>
       <c r="F3" s="1">
         <v>1</v>
       </c>
@@ -6604,7 +6895,7 @@
       </c>
     </row>
     <row r="4" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B4" s="119" t="s">
+      <c r="B4" s="148" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -6626,7 +6917,7 @@
       <c r="O4" s="37"/>
     </row>
     <row r="5" spans="2:18">
-      <c r="B5" s="120"/>
+      <c r="B5" s="149"/>
       <c r="C5" s="8" t="s">
         <v>30</v>
       </c>
@@ -6646,7 +6937,7 @@
       <c r="O5" s="39"/>
     </row>
     <row r="6" spans="2:18">
-      <c r="B6" s="120"/>
+      <c r="B6" s="149"/>
       <c r="C6" s="8" t="s">
         <v>31</v>
       </c>
@@ -6666,7 +6957,7 @@
       <c r="O6" s="39"/>
     </row>
     <row r="7" spans="2:18">
-      <c r="B7" s="120"/>
+      <c r="B7" s="149"/>
       <c r="C7" s="8" t="s">
         <v>32</v>
       </c>
@@ -6686,7 +6977,7 @@
       <c r="O7" s="39"/>
     </row>
     <row r="8" spans="2:18">
-      <c r="B8" s="120"/>
+      <c r="B8" s="149"/>
       <c r="C8" s="8" t="s">
         <v>33</v>
       </c>
@@ -6706,7 +6997,7 @@
       <c r="O8" s="39"/>
     </row>
     <row r="9" spans="2:18">
-      <c r="B9" s="120"/>
+      <c r="B9" s="149"/>
       <c r="C9" s="8" t="s">
         <v>34</v>
       </c>
@@ -6726,7 +7017,7 @@
       <c r="O9" s="39"/>
     </row>
     <row r="10" spans="2:18">
-      <c r="B10" s="120"/>
+      <c r="B10" s="149"/>
       <c r="C10" s="8" t="s">
         <v>35</v>
       </c>
@@ -6746,7 +7037,7 @@
       <c r="O10" s="39"/>
     </row>
     <row r="11" spans="2:18">
-      <c r="B11" s="120"/>
+      <c r="B11" s="149"/>
       <c r="C11" s="8" t="s">
         <v>36</v>
       </c>
@@ -6766,7 +7057,7 @@
       <c r="O11" s="39"/>
     </row>
     <row r="12" spans="2:18">
-      <c r="B12" s="120"/>
+      <c r="B12" s="149"/>
       <c r="C12" s="8" t="s">
         <v>37</v>
       </c>
@@ -6786,7 +7077,7 @@
       <c r="O12" s="39"/>
     </row>
     <row r="13" spans="2:18">
-      <c r="B13" s="120"/>
+      <c r="B13" s="149"/>
       <c r="C13" s="8" t="s">
         <v>38</v>
       </c>
@@ -6806,7 +7097,7 @@
       <c r="O13" s="39"/>
     </row>
     <row r="14" spans="2:18">
-      <c r="B14" s="120"/>
+      <c r="B14" s="149"/>
       <c r="C14" s="8" t="s">
         <v>39</v>
       </c>
@@ -6826,7 +7117,7 @@
       <c r="O14" s="39"/>
     </row>
     <row r="15" spans="2:18">
-      <c r="B15" s="120"/>
+      <c r="B15" s="149"/>
       <c r="C15" s="8" t="s">
         <v>40</v>
       </c>
@@ -6846,7 +7137,7 @@
       <c r="O15" s="39"/>
     </row>
     <row r="16" spans="2:18">
-      <c r="B16" s="120"/>
+      <c r="B16" s="149"/>
       <c r="C16" s="8" t="s">
         <v>41</v>
       </c>
@@ -6866,7 +7157,7 @@
       <c r="O16" s="39"/>
     </row>
     <row r="17" spans="2:15" ht="17.25" thickBot="1">
-      <c r="B17" s="115"/>
+      <c r="B17" s="144"/>
       <c r="C17" s="13" t="s">
         <v>28</v>
       </c>
@@ -6886,7 +7177,7 @@
       <c r="O17" s="54"/>
     </row>
     <row r="18" spans="2:15">
-      <c r="B18" s="121" t="s">
+      <c r="B18" s="150" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="33" t="s">
@@ -6908,7 +7199,7 @@
       <c r="O18" s="44"/>
     </row>
     <row r="19" spans="2:15">
-      <c r="B19" s="120"/>
+      <c r="B19" s="149"/>
       <c r="C19" s="8" t="s">
         <v>56</v>
       </c>
@@ -6928,7 +7219,7 @@
       <c r="O19" s="39"/>
     </row>
     <row r="20" spans="2:15">
-      <c r="B20" s="120"/>
+      <c r="B20" s="149"/>
       <c r="C20" s="8" t="s">
         <v>57</v>
       </c>
@@ -6948,7 +7239,7 @@
       <c r="O20" s="39"/>
     </row>
     <row r="21" spans="2:15">
-      <c r="B21" s="120"/>
+      <c r="B21" s="149"/>
       <c r="C21" s="8" t="s">
         <v>59</v>
       </c>
@@ -6968,7 +7259,7 @@
       <c r="O21" s="39"/>
     </row>
     <row r="22" spans="2:15">
-      <c r="B22" s="120"/>
+      <c r="B22" s="149"/>
       <c r="C22" s="8" t="s">
         <v>58</v>
       </c>
@@ -6988,7 +7279,7 @@
       <c r="O22" s="39"/>
     </row>
     <row r="23" spans="2:15">
-      <c r="B23" s="120"/>
+      <c r="B23" s="149"/>
       <c r="C23" s="8" t="s">
         <v>60</v>
       </c>
@@ -7008,7 +7299,7 @@
       <c r="O23" s="39"/>
     </row>
     <row r="24" spans="2:15" ht="17.25" thickBot="1">
-      <c r="B24" s="115"/>
+      <c r="B24" s="144"/>
       <c r="C24" s="13" t="s">
         <v>21</v>
       </c>
@@ -7028,7 +7319,7 @@
       <c r="O24" s="42"/>
     </row>
     <row r="25" spans="2:15">
-      <c r="B25" s="121" t="s">
+      <c r="B25" s="150" t="s">
         <v>25</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -7050,7 +7341,7 @@
       <c r="O25" s="39"/>
     </row>
     <row r="26" spans="2:15">
-      <c r="B26" s="120"/>
+      <c r="B26" s="149"/>
       <c r="C26" s="8" t="s">
         <v>67</v>
       </c>
@@ -7070,7 +7361,7 @@
       <c r="O26" s="39"/>
     </row>
     <row r="27" spans="2:15">
-      <c r="B27" s="120"/>
+      <c r="B27" s="149"/>
       <c r="C27" s="8" t="s">
         <v>68</v>
       </c>
@@ -7090,7 +7381,7 @@
       <c r="O27" s="39"/>
     </row>
     <row r="28" spans="2:15">
-      <c r="B28" s="120"/>
+      <c r="B28" s="149"/>
       <c r="C28" s="60" t="s">
         <v>73</v>
       </c>
@@ -7110,7 +7401,7 @@
       <c r="O28" s="66"/>
     </row>
     <row r="29" spans="2:15" ht="17.25" thickBot="1">
-      <c r="B29" s="115"/>
+      <c r="B29" s="144"/>
       <c r="C29" s="13" t="s">
         <v>69</v>
       </c>
@@ -7130,7 +7421,7 @@
       <c r="O29" s="42"/>
     </row>
     <row r="30" spans="2:15" ht="16.5" customHeight="1">
-      <c r="B30" s="119" t="s">
+      <c r="B30" s="148" t="s">
         <v>26</v>
       </c>
       <c r="C30" s="3" t="s">
@@ -7152,7 +7443,7 @@
       <c r="O30" s="37"/>
     </row>
     <row r="31" spans="2:15" ht="17.25" thickBot="1">
-      <c r="B31" s="122"/>
+      <c r="B31" s="151"/>
       <c r="C31" s="8" t="s">
         <v>21</v>
       </c>
@@ -7172,7 +7463,7 @@
       <c r="O31" s="44"/>
     </row>
     <row r="32" spans="2:15">
-      <c r="B32" s="119" t="s">
+      <c r="B32" s="148" t="s">
         <v>42</v>
       </c>
       <c r="C32" s="3" t="s">
@@ -7194,7 +7485,7 @@
       <c r="O32" s="37"/>
     </row>
     <row r="33" spans="2:15">
-      <c r="B33" s="120"/>
+      <c r="B33" s="149"/>
       <c r="C33" s="8" t="s">
         <v>78</v>
       </c>
@@ -7214,7 +7505,7 @@
       </c>
     </row>
     <row r="34" spans="2:15">
-      <c r="B34" s="120"/>
+      <c r="B34" s="149"/>
       <c r="C34" s="8" t="s">
         <v>80</v>
       </c>
@@ -7234,7 +7525,7 @@
       </c>
     </row>
     <row r="35" spans="2:15" ht="17.25" thickBot="1">
-      <c r="B35" s="115"/>
+      <c r="B35" s="144"/>
       <c r="C35" s="13" t="s">
         <v>21</v>
       </c>
@@ -7267,12 +7558,12 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="R1">
-    <cfRule type="containsText" dxfId="70" priority="2" operator="containsText" text="미완료">
+    <cfRule type="containsText" dxfId="109" priority="2" operator="containsText" text="미완료">
       <formula>NOT(ISERROR(SEARCH("미완료",R1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1">
-    <cfRule type="containsText" dxfId="69" priority="1" operator="containsText" text="오늘">
+    <cfRule type="containsText" dxfId="108" priority="1" operator="containsText" text="오늘">
       <formula>NOT(ISERROR(SEARCH("오늘",P1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7287,10 +7578,10 @@
   <dimension ref="A1:AU113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="12" ySplit="9" topLeftCell="M49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="12" ySplit="9" topLeftCell="M100" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="U20" sqref="U20"/>
+      <selection pane="bottomRight" activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="16.5"/>
@@ -7312,16 +7603,16 @@
       <c r="A1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="154" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="142"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="155"/>
       <c r="F1" s="29"/>
       <c r="G1" s="29"/>
       <c r="H1" s="29"/>
-      <c r="I1" s="107"/>
+      <c r="I1" s="106"/>
       <c r="J1" s="22" t="s">
         <v>120</v>
       </c>
@@ -7332,16 +7623,16 @@
       <c r="A2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="142" t="s">
+      <c r="B2" s="155" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
       <c r="F2" s="29"/>
       <c r="G2" s="29"/>
       <c r="H2" s="29"/>
-      <c r="I2" s="109"/>
+      <c r="I2" s="108"/>
       <c r="J2" s="22" t="s">
         <v>118</v>
       </c>
@@ -7352,16 +7643,16 @@
       <c r="A3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="144" t="s">
+      <c r="B3" s="157" t="s">
         <v>123</v>
       </c>
-      <c r="C3" s="145"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="145"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="158"/>
       <c r="F3" s="29"/>
       <c r="G3" s="29"/>
       <c r="H3" s="29"/>
-      <c r="I3" s="108"/>
+      <c r="I3" s="107"/>
       <c r="J3" s="22" t="s">
         <v>119</v>
       </c>
@@ -7372,17 +7663,17 @@
       <c r="A4" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="146">
+      <c r="B4" s="159">
         <v>1</v>
       </c>
-      <c r="C4" s="147"/>
-      <c r="D4" s="147"/>
-      <c r="E4" s="147"/>
+      <c r="C4" s="160"/>
+      <c r="D4" s="160"/>
+      <c r="E4" s="160"/>
       <c r="F4" s="29"/>
       <c r="G4" s="29"/>
       <c r="H4" s="29"/>
-      <c r="I4" s="148"/>
-      <c r="J4" s="149" t="s">
+      <c r="I4" s="109"/>
+      <c r="J4" s="110" t="s">
         <v>158</v>
       </c>
       <c r="K4" s="95"/>
@@ -7392,161 +7683,161 @@
       <c r="A5" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="139">
+      <c r="B5" s="152">
         <v>44131</v>
       </c>
-      <c r="C5" s="140"/>
-      <c r="D5" s="140"/>
-      <c r="E5" s="140"/>
+      <c r="C5" s="153"/>
+      <c r="D5" s="153"/>
+      <c r="E5" s="153"/>
       <c r="F5" s="29"/>
       <c r="G5" s="29"/>
       <c r="H5" s="29"/>
-      <c r="I5" s="106"/>
-      <c r="J5" s="178" t="s">
+      <c r="I5" s="181"/>
+      <c r="J5" s="135" t="s">
         <v>157</v>
       </c>
       <c r="K5" s="95"/>
       <c r="L5"/>
     </row>
     <row r="6" spans="1:47" ht="16.5" customHeight="1">
-      <c r="A6" s="130" t="s">
+      <c r="A6" s="168" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="131"/>
-      <c r="C6" s="131"/>
-      <c r="D6" s="131"/>
-      <c r="E6" s="131"/>
-      <c r="F6" s="131"/>
-      <c r="G6" s="131"/>
-      <c r="H6" s="131"/>
-      <c r="I6" s="131"/>
-      <c r="J6" s="131"/>
-      <c r="K6" s="131"/>
-      <c r="L6" s="131"/>
-      <c r="M6" s="124" t="s">
+      <c r="B6" s="169"/>
+      <c r="C6" s="169"/>
+      <c r="D6" s="169"/>
+      <c r="E6" s="169"/>
+      <c r="F6" s="169"/>
+      <c r="G6" s="169"/>
+      <c r="H6" s="169"/>
+      <c r="I6" s="169"/>
+      <c r="J6" s="169"/>
+      <c r="K6" s="169"/>
+      <c r="L6" s="169"/>
+      <c r="M6" s="162" t="s">
         <v>87</v>
       </c>
-      <c r="N6" s="124"/>
-      <c r="O6" s="124"/>
-      <c r="P6" s="124"/>
-      <c r="Q6" s="124"/>
-      <c r="R6" s="124"/>
-      <c r="S6" s="124"/>
-      <c r="T6" s="124"/>
-      <c r="U6" s="124"/>
-      <c r="V6" s="124"/>
-      <c r="W6" s="124"/>
-      <c r="X6" s="124"/>
-      <c r="Y6" s="124"/>
-      <c r="Z6" s="124"/>
-      <c r="AA6" s="124"/>
-      <c r="AB6" s="124"/>
-      <c r="AC6" s="124"/>
-      <c r="AD6" s="124"/>
-      <c r="AE6" s="124"/>
-      <c r="AF6" s="124"/>
-      <c r="AG6" s="124"/>
-      <c r="AH6" s="123" t="s">
+      <c r="N6" s="162"/>
+      <c r="O6" s="162"/>
+      <c r="P6" s="162"/>
+      <c r="Q6" s="162"/>
+      <c r="R6" s="162"/>
+      <c r="S6" s="162"/>
+      <c r="T6" s="162"/>
+      <c r="U6" s="162"/>
+      <c r="V6" s="162"/>
+      <c r="W6" s="162"/>
+      <c r="X6" s="162"/>
+      <c r="Y6" s="162"/>
+      <c r="Z6" s="162"/>
+      <c r="AA6" s="162"/>
+      <c r="AB6" s="162"/>
+      <c r="AC6" s="162"/>
+      <c r="AD6" s="162"/>
+      <c r="AE6" s="162"/>
+      <c r="AF6" s="162"/>
+      <c r="AG6" s="162"/>
+      <c r="AH6" s="161" t="s">
         <v>88</v>
       </c>
-      <c r="AI6" s="124"/>
-      <c r="AJ6" s="124"/>
-      <c r="AK6" s="124"/>
-      <c r="AL6" s="124"/>
-      <c r="AM6" s="124"/>
-      <c r="AN6" s="124"/>
-      <c r="AO6" s="124"/>
-      <c r="AP6" s="124"/>
-      <c r="AQ6" s="124"/>
-      <c r="AR6" s="124"/>
-      <c r="AS6" s="124"/>
-      <c r="AT6" s="124"/>
-      <c r="AU6" s="124"/>
+      <c r="AI6" s="162"/>
+      <c r="AJ6" s="162"/>
+      <c r="AK6" s="162"/>
+      <c r="AL6" s="162"/>
+      <c r="AM6" s="162"/>
+      <c r="AN6" s="162"/>
+      <c r="AO6" s="162"/>
+      <c r="AP6" s="162"/>
+      <c r="AQ6" s="162"/>
+      <c r="AR6" s="162"/>
+      <c r="AS6" s="162"/>
+      <c r="AT6" s="162"/>
+      <c r="AU6" s="162"/>
     </row>
     <row r="7" spans="1:47" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A7" s="132"/>
-      <c r="B7" s="133"/>
-      <c r="C7" s="133"/>
-      <c r="D7" s="133"/>
-      <c r="E7" s="133"/>
-      <c r="F7" s="133"/>
-      <c r="G7" s="133"/>
-      <c r="H7" s="133"/>
-      <c r="I7" s="133"/>
-      <c r="J7" s="133"/>
-      <c r="K7" s="133"/>
-      <c r="L7" s="133"/>
-      <c r="M7" s="123" t="s">
+      <c r="A7" s="170"/>
+      <c r="B7" s="171"/>
+      <c r="C7" s="171"/>
+      <c r="D7" s="171"/>
+      <c r="E7" s="171"/>
+      <c r="F7" s="171"/>
+      <c r="G7" s="171"/>
+      <c r="H7" s="171"/>
+      <c r="I7" s="171"/>
+      <c r="J7" s="171"/>
+      <c r="K7" s="171"/>
+      <c r="L7" s="171"/>
+      <c r="M7" s="161" t="s">
         <v>99</v>
       </c>
-      <c r="N7" s="124"/>
-      <c r="O7" s="124"/>
-      <c r="P7" s="124"/>
-      <c r="Q7" s="124"/>
-      <c r="R7" s="124"/>
-      <c r="S7" s="125"/>
-      <c r="T7" s="123" t="s">
+      <c r="N7" s="162"/>
+      <c r="O7" s="162"/>
+      <c r="P7" s="162"/>
+      <c r="Q7" s="162"/>
+      <c r="R7" s="162"/>
+      <c r="S7" s="163"/>
+      <c r="T7" s="161" t="s">
         <v>100</v>
       </c>
-      <c r="U7" s="124"/>
-      <c r="V7" s="124"/>
-      <c r="W7" s="124"/>
-      <c r="X7" s="124"/>
-      <c r="Y7" s="124"/>
-      <c r="Z7" s="125"/>
-      <c r="AA7" s="123" t="s">
+      <c r="U7" s="162"/>
+      <c r="V7" s="162"/>
+      <c r="W7" s="162"/>
+      <c r="X7" s="162"/>
+      <c r="Y7" s="162"/>
+      <c r="Z7" s="163"/>
+      <c r="AA7" s="161" t="s">
         <v>101</v>
       </c>
-      <c r="AB7" s="124"/>
-      <c r="AC7" s="124"/>
-      <c r="AD7" s="124"/>
-      <c r="AE7" s="124"/>
-      <c r="AF7" s="124"/>
-      <c r="AG7" s="125"/>
-      <c r="AH7" s="123" t="s">
+      <c r="AB7" s="162"/>
+      <c r="AC7" s="162"/>
+      <c r="AD7" s="162"/>
+      <c r="AE7" s="162"/>
+      <c r="AF7" s="162"/>
+      <c r="AG7" s="163"/>
+      <c r="AH7" s="161" t="s">
         <v>97</v>
       </c>
-      <c r="AI7" s="124"/>
-      <c r="AJ7" s="124"/>
-      <c r="AK7" s="124"/>
-      <c r="AL7" s="124"/>
-      <c r="AM7" s="124"/>
-      <c r="AN7" s="125"/>
-      <c r="AO7" s="123" t="s">
+      <c r="AI7" s="162"/>
+      <c r="AJ7" s="162"/>
+      <c r="AK7" s="162"/>
+      <c r="AL7" s="162"/>
+      <c r="AM7" s="162"/>
+      <c r="AN7" s="163"/>
+      <c r="AO7" s="161" t="s">
         <v>98</v>
       </c>
-      <c r="AP7" s="124"/>
-      <c r="AQ7" s="124"/>
-      <c r="AR7" s="124"/>
-      <c r="AS7" s="124"/>
-      <c r="AT7" s="124"/>
-      <c r="AU7" s="125"/>
+      <c r="AP7" s="162"/>
+      <c r="AQ7" s="162"/>
+      <c r="AR7" s="162"/>
+      <c r="AS7" s="162"/>
+      <c r="AT7" s="162"/>
+      <c r="AU7" s="163"/>
     </row>
     <row r="8" spans="1:47" s="73" customFormat="1">
-      <c r="A8" s="134" t="s">
+      <c r="A8" s="172" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="136" t="s">
+      <c r="B8" s="174" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="136"/>
-      <c r="D8" s="136" t="s">
+      <c r="C8" s="174"/>
+      <c r="D8" s="174" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="136"/>
-      <c r="F8" s="138" t="s">
+      <c r="E8" s="174"/>
+      <c r="F8" s="176" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="138"/>
-      <c r="H8" s="138"/>
-      <c r="I8" s="128" t="s">
+      <c r="G8" s="176"/>
+      <c r="H8" s="176"/>
+      <c r="I8" s="166" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="126" t="s">
+      <c r="J8" s="164" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="127"/>
-      <c r="L8" s="128" t="s">
+      <c r="K8" s="165"/>
+      <c r="L8" s="166" t="s">
         <v>93</v>
       </c>
       <c r="M8" s="97">
@@ -7691,11 +7982,11 @@
       </c>
     </row>
     <row r="9" spans="1:47" s="72" customFormat="1">
-      <c r="A9" s="135"/>
-      <c r="B9" s="137"/>
-      <c r="C9" s="137"/>
-      <c r="D9" s="137"/>
-      <c r="E9" s="137"/>
+      <c r="A9" s="173"/>
+      <c r="B9" s="175"/>
+      <c r="C9" s="175"/>
+      <c r="D9" s="175"/>
+      <c r="E9" s="175"/>
       <c r="F9" s="78" t="s">
         <v>16</v>
       </c>
@@ -7705,14 +7996,14 @@
       <c r="H9" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="129"/>
+      <c r="I9" s="167"/>
       <c r="J9" s="75" t="s">
         <v>19</v>
       </c>
       <c r="K9" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="129"/>
+      <c r="L9" s="167"/>
       <c r="M9" s="74">
         <v>44115</v>
       </c>
@@ -8146,16 +8437,16 @@
       <c r="AU15" s="96"/>
     </row>
     <row r="16" spans="1:47" s="95" customFormat="1">
-      <c r="A16" s="158"/>
-      <c r="B16" s="159"/>
-      <c r="C16" s="160"/>
-      <c r="D16" s="160" t="s">
+      <c r="A16" s="117"/>
+      <c r="B16" s="118"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119" t="s">
         <v>91</v>
       </c>
-      <c r="E16" s="161" t="s">
+      <c r="E16" s="177" t="s">
         <v>128</v>
       </c>
-      <c r="F16" s="162"/>
+      <c r="F16" s="178"/>
       <c r="G16" s="93"/>
       <c r="H16" s="93"/>
       <c r="I16" s="81" t="s">
@@ -8201,16 +8492,16 @@
       <c r="AU16" s="96"/>
     </row>
     <row r="17" spans="1:47" s="95" customFormat="1">
-      <c r="A17" s="150"/>
-      <c r="B17" s="151"/>
-      <c r="C17" s="152"/>
-      <c r="D17" s="152" t="s">
+      <c r="A17" s="111"/>
+      <c r="B17" s="112"/>
+      <c r="C17" s="113"/>
+      <c r="D17" s="113" t="s">
         <v>126</v>
       </c>
-      <c r="E17" s="156" t="s">
+      <c r="E17" s="179" t="s">
         <v>129</v>
       </c>
-      <c r="F17" s="157"/>
+      <c r="F17" s="180"/>
       <c r="G17" s="93"/>
       <c r="H17" s="93"/>
       <c r="I17" s="81" t="s">
@@ -8256,16 +8547,16 @@
       <c r="AU17" s="96"/>
     </row>
     <row r="18" spans="1:47" s="95" customFormat="1">
-      <c r="A18" s="150"/>
-      <c r="B18" s="151"/>
-      <c r="C18" s="152"/>
-      <c r="D18" s="152" t="s">
+      <c r="A18" s="111"/>
+      <c r="B18" s="112"/>
+      <c r="C18" s="113"/>
+      <c r="D18" s="113" t="s">
         <v>127</v>
       </c>
-      <c r="E18" s="156" t="s">
+      <c r="E18" s="179" t="s">
         <v>130</v>
       </c>
-      <c r="F18" s="157"/>
+      <c r="F18" s="180"/>
       <c r="G18" s="93"/>
       <c r="H18" s="93"/>
       <c r="I18" s="81" t="s">
@@ -8315,16 +8606,16 @@
       <c r="AU18" s="96"/>
     </row>
     <row r="19" spans="1:47" s="95" customFormat="1">
-      <c r="A19" s="150"/>
-      <c r="B19" s="151" t="s">
+      <c r="A19" s="111"/>
+      <c r="B19" s="112" t="s">
         <v>140</v>
       </c>
-      <c r="C19" s="152" t="s">
+      <c r="C19" s="113" t="s">
         <v>139</v>
       </c>
-      <c r="D19" s="152"/>
-      <c r="E19" s="168"/>
-      <c r="F19" s="154"/>
+      <c r="D19" s="113"/>
+      <c r="E19" s="125"/>
+      <c r="F19" s="115"/>
       <c r="G19" s="93"/>
       <c r="H19" s="93"/>
       <c r="I19" s="81"/>
@@ -8368,16 +8659,16 @@
       <c r="AU19" s="96"/>
     </row>
     <row r="20" spans="1:47" s="95" customFormat="1">
-      <c r="A20" s="150"/>
-      <c r="B20" s="151"/>
-      <c r="C20" s="152"/>
-      <c r="D20" s="152" t="s">
+      <c r="A20" s="111"/>
+      <c r="B20" s="112"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="113" t="s">
         <v>141</v>
       </c>
-      <c r="E20" s="168" t="s">
+      <c r="E20" s="125" t="s">
         <v>142</v>
       </c>
-      <c r="F20" s="154"/>
+      <c r="F20" s="115"/>
       <c r="G20" s="93"/>
       <c r="H20" s="93"/>
       <c r="I20" s="81" t="s">
@@ -8423,16 +8714,16 @@
       <c r="AU20" s="96"/>
     </row>
     <row r="21" spans="1:47" s="95" customFormat="1">
-      <c r="A21" s="150"/>
-      <c r="B21" s="151"/>
-      <c r="C21" s="152"/>
-      <c r="D21" s="153" t="s">
+      <c r="A21" s="111"/>
+      <c r="B21" s="112"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="114" t="s">
         <v>143</v>
       </c>
-      <c r="E21" s="168" t="s">
+      <c r="E21" s="125" t="s">
         <v>144</v>
       </c>
-      <c r="F21" s="154"/>
+      <c r="F21" s="115"/>
       <c r="G21" s="93"/>
       <c r="H21" s="93"/>
       <c r="I21" s="81" t="s">
@@ -8478,16 +8769,16 @@
       <c r="AU21" s="96"/>
     </row>
     <row r="22" spans="1:47" s="95" customFormat="1">
-      <c r="A22" s="150"/>
-      <c r="B22" s="151" t="s">
+      <c r="A22" s="111"/>
+      <c r="B22" s="112" t="s">
         <v>145</v>
       </c>
-      <c r="C22" s="152" t="s">
+      <c r="C22" s="113" t="s">
         <v>146</v>
       </c>
-      <c r="D22" s="152"/>
-      <c r="E22" s="168"/>
-      <c r="F22" s="154"/>
+      <c r="D22" s="113"/>
+      <c r="E22" s="125"/>
+      <c r="F22" s="115"/>
       <c r="G22" s="93"/>
       <c r="H22" s="93"/>
       <c r="I22" s="81"/>
@@ -8531,16 +8822,16 @@
       <c r="AU22" s="96"/>
     </row>
     <row r="23" spans="1:47" s="95" customFormat="1">
-      <c r="A23" s="150"/>
-      <c r="B23" s="151"/>
-      <c r="C23" s="152"/>
-      <c r="D23" s="152" t="s">
+      <c r="A23" s="111"/>
+      <c r="B23" s="112"/>
+      <c r="C23" s="113"/>
+      <c r="D23" s="113" t="s">
         <v>147</v>
       </c>
-      <c r="E23" s="168" t="s">
+      <c r="E23" s="125" t="s">
         <v>148</v>
       </c>
-      <c r="F23" s="154"/>
+      <c r="F23" s="115"/>
       <c r="G23" s="93"/>
       <c r="H23" s="93"/>
       <c r="I23" s="81" t="s">
@@ -8586,16 +8877,16 @@
       <c r="AU23" s="96"/>
     </row>
     <row r="24" spans="1:47" s="95" customFormat="1">
-      <c r="A24" s="150"/>
-      <c r="B24" s="151"/>
-      <c r="C24" s="152"/>
-      <c r="D24" s="152" t="s">
+      <c r="A24" s="111"/>
+      <c r="B24" s="112"/>
+      <c r="C24" s="113"/>
+      <c r="D24" s="113" t="s">
         <v>149</v>
       </c>
-      <c r="E24" s="168" t="s">
+      <c r="E24" s="125" t="s">
         <v>150</v>
       </c>
-      <c r="F24" s="154"/>
+      <c r="F24" s="115"/>
       <c r="G24" s="93"/>
       <c r="H24" s="93"/>
       <c r="I24" s="81" t="s">
@@ -8641,69 +8932,69 @@
       <c r="AU24" s="96"/>
     </row>
     <row r="25" spans="1:47" s="95" customFormat="1">
-      <c r="A25" s="158"/>
-      <c r="B25" s="159" t="s">
+      <c r="A25" s="117"/>
+      <c r="B25" s="118" t="s">
         <v>151</v>
       </c>
-      <c r="C25" s="160" t="s">
+      <c r="C25" s="119" t="s">
         <v>152</v>
       </c>
-      <c r="D25" s="160"/>
-      <c r="E25" s="169"/>
-      <c r="F25" s="154"/>
+      <c r="D25" s="119"/>
+      <c r="E25" s="126"/>
+      <c r="F25" s="115"/>
       <c r="G25" s="101"/>
       <c r="H25" s="101"/>
       <c r="I25" s="81"/>
       <c r="J25" s="103"/>
       <c r="K25" s="103"/>
       <c r="L25" s="102"/>
-      <c r="M25" s="170"/>
-      <c r="N25" s="171"/>
-      <c r="O25" s="170"/>
-      <c r="P25" s="170"/>
-      <c r="Q25" s="170"/>
-      <c r="R25" s="170"/>
-      <c r="S25" s="170"/>
-      <c r="T25" s="170"/>
-      <c r="U25" s="170"/>
-      <c r="V25" s="170"/>
-      <c r="W25" s="170"/>
-      <c r="X25" s="170"/>
-      <c r="Y25" s="170"/>
-      <c r="Z25" s="170"/>
-      <c r="AA25" s="170"/>
-      <c r="AB25" s="170"/>
-      <c r="AC25" s="170"/>
-      <c r="AD25" s="170"/>
-      <c r="AE25" s="170"/>
-      <c r="AF25" s="170"/>
-      <c r="AG25" s="170"/>
-      <c r="AH25" s="170"/>
-      <c r="AI25" s="170"/>
-      <c r="AJ25" s="170"/>
-      <c r="AK25" s="170"/>
-      <c r="AL25" s="170"/>
-      <c r="AM25" s="170"/>
-      <c r="AN25" s="170"/>
-      <c r="AO25" s="170"/>
-      <c r="AP25" s="170"/>
-      <c r="AQ25" s="170"/>
-      <c r="AR25" s="170"/>
-      <c r="AS25" s="170"/>
-      <c r="AT25" s="170"/>
-      <c r="AU25" s="170"/>
+      <c r="M25" s="127"/>
+      <c r="N25" s="128"/>
+      <c r="O25" s="127"/>
+      <c r="P25" s="127"/>
+      <c r="Q25" s="127"/>
+      <c r="R25" s="127"/>
+      <c r="S25" s="127"/>
+      <c r="T25" s="127"/>
+      <c r="U25" s="127"/>
+      <c r="V25" s="127"/>
+      <c r="W25" s="127"/>
+      <c r="X25" s="127"/>
+      <c r="Y25" s="127"/>
+      <c r="Z25" s="127"/>
+      <c r="AA25" s="127"/>
+      <c r="AB25" s="127"/>
+      <c r="AC25" s="127"/>
+      <c r="AD25" s="127"/>
+      <c r="AE25" s="127"/>
+      <c r="AF25" s="127"/>
+      <c r="AG25" s="127"/>
+      <c r="AH25" s="127"/>
+      <c r="AI25" s="127"/>
+      <c r="AJ25" s="127"/>
+      <c r="AK25" s="127"/>
+      <c r="AL25" s="127"/>
+      <c r="AM25" s="127"/>
+      <c r="AN25" s="127"/>
+      <c r="AO25" s="127"/>
+      <c r="AP25" s="127"/>
+      <c r="AQ25" s="127"/>
+      <c r="AR25" s="127"/>
+      <c r="AS25" s="127"/>
+      <c r="AT25" s="127"/>
+      <c r="AU25" s="127"/>
     </row>
     <row r="26" spans="1:47" s="94" customFormat="1">
-      <c r="A26" s="150"/>
-      <c r="B26" s="151"/>
-      <c r="C26" s="152"/>
-      <c r="D26" s="152" t="s">
+      <c r="A26" s="111"/>
+      <c r="B26" s="112"/>
+      <c r="C26" s="113"/>
+      <c r="D26" s="113" t="s">
         <v>153</v>
       </c>
-      <c r="E26" s="177" t="s">
+      <c r="E26" s="134" t="s">
         <v>154</v>
       </c>
-      <c r="F26" s="177"/>
+      <c r="F26" s="134"/>
       <c r="G26" s="93"/>
       <c r="H26" s="93"/>
       <c r="I26" s="81" t="s">
@@ -8749,69 +9040,69 @@
       <c r="AU26" s="96"/>
     </row>
     <row r="27" spans="1:47" s="95" customFormat="1">
-      <c r="A27" s="153"/>
-      <c r="B27" s="155"/>
-      <c r="C27" s="153"/>
-      <c r="D27" s="153" t="s">
+      <c r="A27" s="114"/>
+      <c r="B27" s="116"/>
+      <c r="C27" s="114"/>
+      <c r="D27" s="114" t="s">
         <v>156</v>
       </c>
-      <c r="E27" s="167" t="s">
+      <c r="E27" s="124" t="s">
         <v>155</v>
       </c>
-      <c r="F27" s="154"/>
-      <c r="G27" s="172"/>
-      <c r="H27" s="172"/>
-      <c r="I27" s="173" t="s">
+      <c r="F27" s="115"/>
+      <c r="G27" s="129"/>
+      <c r="H27" s="129"/>
+      <c r="I27" s="130" t="s">
         <v>120</v>
       </c>
-      <c r="J27" s="174"/>
-      <c r="K27" s="174"/>
-      <c r="L27" s="173"/>
-      <c r="M27" s="175"/>
-      <c r="N27" s="176"/>
-      <c r="O27" s="175"/>
-      <c r="P27" s="175"/>
-      <c r="Q27" s="175"/>
-      <c r="R27" s="175"/>
-      <c r="S27" s="175"/>
-      <c r="T27" s="175"/>
-      <c r="U27" s="175"/>
-      <c r="V27" s="175"/>
-      <c r="W27" s="175"/>
-      <c r="X27" s="175"/>
-      <c r="Y27" s="175"/>
-      <c r="Z27" s="175"/>
-      <c r="AA27" s="175"/>
-      <c r="AB27" s="175"/>
-      <c r="AC27" s="175"/>
-      <c r="AD27" s="175"/>
-      <c r="AE27" s="175"/>
-      <c r="AF27" s="175"/>
-      <c r="AG27" s="175"/>
-      <c r="AH27" s="175"/>
-      <c r="AI27" s="175"/>
-      <c r="AJ27" s="175"/>
-      <c r="AK27" s="175"/>
-      <c r="AL27" s="175"/>
-      <c r="AM27" s="175"/>
-      <c r="AN27" s="175"/>
-      <c r="AO27" s="175"/>
-      <c r="AP27" s="175"/>
-      <c r="AQ27" s="175"/>
-      <c r="AR27" s="175"/>
-      <c r="AS27" s="175"/>
-      <c r="AT27" s="175"/>
-      <c r="AU27" s="175"/>
+      <c r="J27" s="131"/>
+      <c r="K27" s="131"/>
+      <c r="L27" s="130"/>
+      <c r="M27" s="132"/>
+      <c r="N27" s="133"/>
+      <c r="O27" s="132"/>
+      <c r="P27" s="132"/>
+      <c r="Q27" s="132"/>
+      <c r="R27" s="132"/>
+      <c r="S27" s="132"/>
+      <c r="T27" s="132"/>
+      <c r="U27" s="132"/>
+      <c r="V27" s="132"/>
+      <c r="W27" s="132"/>
+      <c r="X27" s="132"/>
+      <c r="Y27" s="132"/>
+      <c r="Z27" s="132"/>
+      <c r="AA27" s="132"/>
+      <c r="AB27" s="132"/>
+      <c r="AC27" s="132"/>
+      <c r="AD27" s="132"/>
+      <c r="AE27" s="132"/>
+      <c r="AF27" s="132"/>
+      <c r="AG27" s="132"/>
+      <c r="AH27" s="132"/>
+      <c r="AI27" s="132"/>
+      <c r="AJ27" s="132"/>
+      <c r="AK27" s="132"/>
+      <c r="AL27" s="132"/>
+      <c r="AM27" s="132"/>
+      <c r="AN27" s="132"/>
+      <c r="AO27" s="132"/>
+      <c r="AP27" s="132"/>
+      <c r="AQ27" s="132"/>
+      <c r="AR27" s="132"/>
+      <c r="AS27" s="132"/>
+      <c r="AT27" s="132"/>
+      <c r="AU27" s="132"/>
     </row>
     <row r="28" spans="1:47" s="95" customFormat="1">
-      <c r="A28" s="163" t="s">
+      <c r="A28" s="120" t="s">
         <v>131</v>
       </c>
-      <c r="B28" s="164"/>
-      <c r="C28" s="165"/>
-      <c r="D28" s="165"/>
-      <c r="E28" s="165"/>
-      <c r="F28" s="166"/>
+      <c r="B28" s="121"/>
+      <c r="C28" s="122"/>
+      <c r="D28" s="122"/>
+      <c r="E28" s="122"/>
+      <c r="F28" s="123"/>
       <c r="G28" s="87"/>
       <c r="H28" s="87"/>
       <c r="I28" s="88"/>
@@ -9276,10 +9567,10 @@
       <c r="AB36" s="96"/>
       <c r="AC36" s="96"/>
       <c r="AD36" s="96"/>
-      <c r="AE36" s="108"/>
-      <c r="AF36" s="108"/>
-      <c r="AG36" s="108"/>
-      <c r="AH36" s="108"/>
+      <c r="AE36" s="182"/>
+      <c r="AF36" s="182"/>
+      <c r="AG36" s="96"/>
+      <c r="AH36" s="96"/>
       <c r="AI36" s="96"/>
       <c r="AJ36" s="96"/>
       <c r="AK36" s="96"/>
@@ -9314,7 +9605,7 @@
         <v>283</v>
       </c>
       <c r="K37" s="83" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L37" s="102"/>
       <c r="M37" s="96"/>
@@ -9335,10 +9626,10 @@
       <c r="AB37" s="96"/>
       <c r="AC37" s="96"/>
       <c r="AD37" s="96"/>
-      <c r="AE37" s="108"/>
-      <c r="AF37" s="108"/>
-      <c r="AG37" s="108"/>
-      <c r="AH37" s="108"/>
+      <c r="AE37" s="182"/>
+      <c r="AF37" s="182"/>
+      <c r="AG37" s="96"/>
+      <c r="AH37" s="96"/>
       <c r="AI37" s="96"/>
       <c r="AJ37" s="96"/>
       <c r="AK37" s="96"/>
@@ -9373,7 +9664,7 @@
         <v>283</v>
       </c>
       <c r="K38" s="83" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L38" s="102"/>
       <c r="M38" s="96"/>
@@ -9394,10 +9685,10 @@
       <c r="AB38" s="96"/>
       <c r="AC38" s="96"/>
       <c r="AD38" s="96"/>
-      <c r="AE38" s="180"/>
-      <c r="AF38" s="180"/>
-      <c r="AG38" s="180"/>
-      <c r="AH38" s="180"/>
+      <c r="AE38" s="182"/>
+      <c r="AF38" s="182"/>
+      <c r="AG38" s="96"/>
+      <c r="AH38" s="96"/>
       <c r="AI38" s="96"/>
       <c r="AJ38" s="96"/>
       <c r="AK38" s="96"/>
@@ -9510,10 +9801,10 @@
       <c r="AB40" s="96"/>
       <c r="AC40" s="96"/>
       <c r="AD40" s="96"/>
-      <c r="AE40" s="181"/>
-      <c r="AF40" s="181"/>
-      <c r="AG40" s="181"/>
-      <c r="AH40" s="181"/>
+      <c r="AE40" s="138"/>
+      <c r="AF40" s="138"/>
+      <c r="AG40" s="138"/>
+      <c r="AH40" s="138"/>
       <c r="AI40" s="96"/>
       <c r="AJ40" s="96"/>
       <c r="AK40" s="96"/>
@@ -9569,10 +9860,10 @@
       <c r="AB41" s="96"/>
       <c r="AC41" s="96"/>
       <c r="AD41" s="96"/>
-      <c r="AE41" s="181"/>
-      <c r="AF41" s="181"/>
-      <c r="AG41" s="181"/>
-      <c r="AH41" s="181"/>
+      <c r="AE41" s="138"/>
+      <c r="AF41" s="138"/>
+      <c r="AG41" s="138"/>
+      <c r="AH41" s="138"/>
       <c r="AI41" s="96"/>
       <c r="AJ41" s="96"/>
       <c r="AK41" s="96"/>
@@ -9628,10 +9919,10 @@
       <c r="AB42" s="96"/>
       <c r="AC42" s="96"/>
       <c r="AD42" s="96"/>
-      <c r="AE42" s="181"/>
-      <c r="AF42" s="181"/>
-      <c r="AG42" s="181"/>
-      <c r="AH42" s="181"/>
+      <c r="AE42" s="138"/>
+      <c r="AF42" s="138"/>
+      <c r="AG42" s="138"/>
+      <c r="AH42" s="138"/>
       <c r="AI42" s="96"/>
       <c r="AJ42" s="96"/>
       <c r="AK42" s="96"/>
@@ -9744,10 +10035,10 @@
       <c r="AB44" s="96"/>
       <c r="AC44" s="96"/>
       <c r="AD44" s="96"/>
-      <c r="AE44" s="108"/>
-      <c r="AF44" s="108"/>
-      <c r="AG44" s="108"/>
-      <c r="AH44" s="108"/>
+      <c r="AE44" s="107"/>
+      <c r="AF44" s="107"/>
+      <c r="AG44" s="107"/>
+      <c r="AH44" s="107"/>
       <c r="AI44" s="96"/>
       <c r="AJ44" s="96"/>
       <c r="AK44" s="96"/>
@@ -9803,10 +10094,10 @@
       <c r="AB45" s="96"/>
       <c r="AC45" s="96"/>
       <c r="AD45" s="96"/>
-      <c r="AE45" s="181"/>
-      <c r="AF45" s="181"/>
-      <c r="AG45" s="181"/>
-      <c r="AH45" s="181"/>
+      <c r="AE45" s="138"/>
+      <c r="AF45" s="138"/>
+      <c r="AG45" s="138"/>
+      <c r="AH45" s="138"/>
       <c r="AI45" s="96"/>
       <c r="AJ45" s="96"/>
       <c r="AK45" s="96"/>
@@ -9862,10 +10153,10 @@
       <c r="AB46" s="96"/>
       <c r="AC46" s="96"/>
       <c r="AD46" s="96"/>
-      <c r="AE46" s="181"/>
-      <c r="AF46" s="181"/>
-      <c r="AG46" s="181"/>
-      <c r="AH46" s="181"/>
+      <c r="AE46" s="138"/>
+      <c r="AF46" s="138"/>
+      <c r="AG46" s="138"/>
+      <c r="AH46" s="138"/>
       <c r="AI46" s="96"/>
       <c r="AJ46" s="96"/>
       <c r="AK46" s="96"/>
@@ -9921,10 +10212,10 @@
       <c r="AB47" s="96"/>
       <c r="AC47" s="96"/>
       <c r="AD47" s="96"/>
-      <c r="AE47" s="181"/>
-      <c r="AF47" s="181"/>
-      <c r="AG47" s="181"/>
-      <c r="AH47" s="181"/>
+      <c r="AE47" s="138"/>
+      <c r="AF47" s="138"/>
+      <c r="AG47" s="138"/>
+      <c r="AH47" s="138"/>
       <c r="AI47" s="96"/>
       <c r="AJ47" s="96"/>
       <c r="AK47" s="96"/>
@@ -10094,10 +10385,10 @@
       <c r="AB50" s="96"/>
       <c r="AC50" s="96"/>
       <c r="AD50" s="96"/>
-      <c r="AE50" s="180"/>
-      <c r="AF50" s="180"/>
-      <c r="AG50" s="180"/>
-      <c r="AH50" s="180"/>
+      <c r="AE50" s="137"/>
+      <c r="AF50" s="137"/>
+      <c r="AG50" s="137"/>
+      <c r="AH50" s="137"/>
       <c r="AI50" s="96"/>
       <c r="AJ50" s="96"/>
       <c r="AK50" s="96"/>
@@ -10153,10 +10444,10 @@
       <c r="AB51" s="96"/>
       <c r="AC51" s="96"/>
       <c r="AD51" s="96"/>
-      <c r="AE51" s="180"/>
-      <c r="AF51" s="180"/>
-      <c r="AG51" s="180"/>
-      <c r="AH51" s="180"/>
+      <c r="AE51" s="137"/>
+      <c r="AF51" s="137"/>
+      <c r="AG51" s="137"/>
+      <c r="AH51" s="137"/>
       <c r="AI51" s="96"/>
       <c r="AJ51" s="96"/>
       <c r="AK51" s="96"/>
@@ -10212,10 +10503,10 @@
       <c r="AB52" s="96"/>
       <c r="AC52" s="96"/>
       <c r="AD52" s="96"/>
-      <c r="AE52" s="180"/>
-      <c r="AF52" s="180"/>
-      <c r="AG52" s="180"/>
-      <c r="AH52" s="180"/>
+      <c r="AE52" s="137"/>
+      <c r="AF52" s="137"/>
+      <c r="AG52" s="137"/>
+      <c r="AH52" s="137"/>
       <c r="AI52" s="96"/>
       <c r="AJ52" s="96"/>
       <c r="AK52" s="96"/>
@@ -10328,10 +10619,10 @@
       <c r="AB54" s="96"/>
       <c r="AC54" s="96"/>
       <c r="AD54" s="96"/>
-      <c r="AE54" s="108"/>
-      <c r="AF54" s="108"/>
-      <c r="AG54" s="108"/>
-      <c r="AH54" s="108"/>
+      <c r="AE54" s="107"/>
+      <c r="AF54" s="107"/>
+      <c r="AG54" s="107"/>
+      <c r="AH54" s="107"/>
       <c r="AI54" s="96"/>
       <c r="AJ54" s="96"/>
       <c r="AK54" s="96"/>
@@ -10387,10 +10678,10 @@
       <c r="AB55" s="96"/>
       <c r="AC55" s="96"/>
       <c r="AD55" s="96"/>
-      <c r="AE55" s="108"/>
-      <c r="AF55" s="108"/>
-      <c r="AG55" s="108"/>
-      <c r="AH55" s="108"/>
+      <c r="AE55" s="107"/>
+      <c r="AF55" s="107"/>
+      <c r="AG55" s="107"/>
+      <c r="AH55" s="107"/>
       <c r="AI55" s="96"/>
       <c r="AJ55" s="96"/>
       <c r="AK55" s="96"/>
@@ -10446,10 +10737,10 @@
       <c r="AB56" s="96"/>
       <c r="AC56" s="96"/>
       <c r="AD56" s="96"/>
-      <c r="AE56" s="181"/>
-      <c r="AF56" s="181"/>
-      <c r="AG56" s="181"/>
-      <c r="AH56" s="181"/>
+      <c r="AE56" s="138"/>
+      <c r="AF56" s="138"/>
+      <c r="AG56" s="138"/>
+      <c r="AH56" s="138"/>
       <c r="AI56" s="96"/>
       <c r="AJ56" s="96"/>
       <c r="AK56" s="96"/>
@@ -10505,10 +10796,10 @@
       <c r="AB57" s="96"/>
       <c r="AC57" s="96"/>
       <c r="AD57" s="96"/>
-      <c r="AE57" s="181"/>
-      <c r="AF57" s="181"/>
-      <c r="AG57" s="181"/>
-      <c r="AH57" s="181"/>
+      <c r="AE57" s="138"/>
+      <c r="AF57" s="138"/>
+      <c r="AG57" s="138"/>
+      <c r="AH57" s="138"/>
       <c r="AI57" s="96"/>
       <c r="AJ57" s="96"/>
       <c r="AK57" s="96"/>
@@ -10621,10 +10912,10 @@
       <c r="AB59" s="96"/>
       <c r="AC59" s="96"/>
       <c r="AD59" s="96"/>
-      <c r="AE59" s="181"/>
-      <c r="AF59" s="181"/>
-      <c r="AG59" s="181"/>
-      <c r="AH59" s="181"/>
+      <c r="AE59" s="138"/>
+      <c r="AF59" s="138"/>
+      <c r="AG59" s="138"/>
+      <c r="AH59" s="138"/>
       <c r="AI59" s="96"/>
       <c r="AJ59" s="96"/>
       <c r="AK59" s="96"/>
@@ -10678,10 +10969,10 @@
       <c r="AB60" s="96"/>
       <c r="AC60" s="96"/>
       <c r="AD60" s="96"/>
-      <c r="AE60" s="181"/>
-      <c r="AF60" s="181"/>
-      <c r="AG60" s="181"/>
-      <c r="AH60" s="181"/>
+      <c r="AE60" s="138"/>
+      <c r="AF60" s="138"/>
+      <c r="AG60" s="138"/>
+      <c r="AH60" s="138"/>
       <c r="AI60" s="96"/>
       <c r="AJ60" s="96"/>
       <c r="AK60" s="96"/>
@@ -10794,10 +11085,10 @@
       <c r="AB62" s="96"/>
       <c r="AC62" s="96"/>
       <c r="AD62" s="96"/>
-      <c r="AE62" s="108"/>
-      <c r="AF62" s="108"/>
-      <c r="AG62" s="108"/>
-      <c r="AH62" s="108"/>
+      <c r="AE62" s="107"/>
+      <c r="AF62" s="107"/>
+      <c r="AG62" s="107"/>
+      <c r="AH62" s="107"/>
       <c r="AI62" s="96"/>
       <c r="AJ62" s="96"/>
       <c r="AK62" s="96"/>
@@ -10851,10 +11142,10 @@
       <c r="AB63" s="96"/>
       <c r="AC63" s="96"/>
       <c r="AD63" s="96"/>
-      <c r="AE63" s="108"/>
-      <c r="AF63" s="108"/>
-      <c r="AG63" s="108"/>
-      <c r="AH63" s="108"/>
+      <c r="AE63" s="107"/>
+      <c r="AF63" s="107"/>
+      <c r="AG63" s="107"/>
+      <c r="AH63" s="107"/>
       <c r="AI63" s="96"/>
       <c r="AJ63" s="96"/>
       <c r="AK63" s="96"/>
@@ -10908,10 +11199,10 @@
       <c r="AB64" s="96"/>
       <c r="AC64" s="96"/>
       <c r="AD64" s="96"/>
-      <c r="AE64" s="180"/>
-      <c r="AF64" s="180"/>
-      <c r="AG64" s="180"/>
-      <c r="AH64" s="180"/>
+      <c r="AE64" s="137"/>
+      <c r="AF64" s="137"/>
+      <c r="AG64" s="137"/>
+      <c r="AH64" s="137"/>
       <c r="AI64" s="96"/>
       <c r="AJ64" s="96"/>
       <c r="AK64" s="96"/>
@@ -10965,10 +11256,10 @@
       <c r="AB65" s="96"/>
       <c r="AC65" s="96"/>
       <c r="AD65" s="96"/>
-      <c r="AE65" s="180"/>
-      <c r="AF65" s="180"/>
-      <c r="AG65" s="180"/>
-      <c r="AH65" s="180"/>
+      <c r="AE65" s="137"/>
+      <c r="AF65" s="137"/>
+      <c r="AG65" s="137"/>
+      <c r="AH65" s="137"/>
       <c r="AI65" s="96"/>
       <c r="AJ65" s="96"/>
       <c r="AK65" s="96"/>
@@ -11022,10 +11313,10 @@
       <c r="AB66" s="96"/>
       <c r="AC66" s="96"/>
       <c r="AD66" s="96"/>
-      <c r="AE66" s="108"/>
-      <c r="AF66" s="108"/>
-      <c r="AG66" s="108"/>
-      <c r="AH66" s="108"/>
+      <c r="AE66" s="107"/>
+      <c r="AF66" s="107"/>
+      <c r="AG66" s="107"/>
+      <c r="AH66" s="107"/>
       <c r="AI66" s="96"/>
       <c r="AJ66" s="96"/>
       <c r="AK66" s="96"/>
@@ -11079,10 +11370,10 @@
       <c r="AB67" s="96"/>
       <c r="AC67" s="96"/>
       <c r="AD67" s="96"/>
-      <c r="AE67" s="181"/>
-      <c r="AF67" s="181"/>
-      <c r="AG67" s="181"/>
-      <c r="AH67" s="181"/>
+      <c r="AE67" s="138"/>
+      <c r="AF67" s="138"/>
+      <c r="AG67" s="138"/>
+      <c r="AH67" s="138"/>
       <c r="AI67" s="96"/>
       <c r="AJ67" s="96"/>
       <c r="AK67" s="96"/>
@@ -13567,11 +13858,11 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="M7:S7"/>
+    <mergeCell ref="T7:Z7"/>
     <mergeCell ref="AA7:AG7"/>
     <mergeCell ref="AO7:AU7"/>
     <mergeCell ref="AH7:AN7"/>
@@ -13585,153 +13876,276 @@
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="M6:AG6"/>
     <mergeCell ref="AH6:AU6"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="M7:S7"/>
-    <mergeCell ref="T7:Z7"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="M8:AU8">
-    <cfRule type="expression" dxfId="68" priority="500">
+    <cfRule type="expression" dxfId="107" priority="539">
       <formula>WEEKDAY(M$8)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="502">
+    <cfRule type="expression" dxfId="106" priority="541">
       <formula>WEEKDAY(M$8)=7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M9:AU9">
-    <cfRule type="expression" dxfId="66" priority="499">
+    <cfRule type="expression" dxfId="105" priority="538">
       <formula>WEEKDAY(M$9)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="501">
+    <cfRule type="expression" dxfId="104" priority="540">
       <formula>WEEKDAY(M$9)=7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11:AU12 M16:AU27 M29:AU33 M35:AU35 M70:AU105 M107:AU109 M111:AU113 M39:AU39 M48:AU49 M58:AU58 M43:AU43 M40:AD42 AI40:AU42 M44:AD47 AI44:AU47 M53:AU53 M50:AD52 AI50:AU52 M54:AD57 AI54:AU57 M68:AU68 M59:AD67 AI59:AU67 M36:AD38 AI36:AU38">
-    <cfRule type="expression" dxfId="64" priority="248">
+    <cfRule type="expression" dxfId="103" priority="287">
       <formula>WEEKDAY(M$9)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="249">
+    <cfRule type="expression" dxfId="102" priority="288">
       <formula>WEEKDAY(M$9)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="250">
+    <cfRule type="expression" dxfId="101" priority="289">
       <formula xml:space="preserve"> AND(M$9 &gt;= $J11, M$9 &lt;= $K11, $I11 = "000")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="251">
+    <cfRule type="expression" dxfId="100" priority="290">
       <formula xml:space="preserve"> AND(M$9 &gt;= $J11, M$9 &lt;= $K11, $I11 = "000")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="312">
+    <cfRule type="expression" dxfId="99" priority="351">
       <formula xml:space="preserve"> AND(M$9 &gt;= $J11, M$9 &lt;= $K11, $I11 = "000")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="487">
+    <cfRule type="expression" dxfId="98" priority="526">
       <formula xml:space="preserve"> AND(M$9 &gt;= $J11, M$9 &lt;= $K11, $I11 = "000")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="488">
+    <cfRule type="expression" dxfId="97" priority="527">
       <formula xml:space="preserve"> AND(M$9 &gt;= $J11, M$9 &lt;= $K11, $I11 = "000")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="489">
+    <cfRule type="expression" dxfId="96" priority="528">
       <formula xml:space="preserve"> AND(M$9 &gt;= $J11, M$9 &lt;= $K11, $I11 = "000")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="490">
+    <cfRule type="expression" dxfId="95" priority="529">
       <formula xml:space="preserve"> AND(M$9 &gt;= $J11, M$9 &lt;= $K11, $I11 = "000")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="492">
+    <cfRule type="expression" dxfId="94" priority="531">
       <formula xml:space="preserve"> AND(M$9 &gt;= $J11, M$9 &lt;= $K11, $I11 = "000")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="493">
+    <cfRule type="expression" dxfId="93" priority="532">
       <formula xml:space="preserve"> AND(M$9 &gt;= $J11, M$9 &lt;= $K11, $I11 = "000")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="494">
+    <cfRule type="expression" dxfId="92" priority="533">
       <formula xml:space="preserve"> AND(M$9 &gt;= $J11, M$9 &lt;= $K11, $I11 = "000")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="498">
+    <cfRule type="expression" dxfId="91" priority="537">
       <formula xml:space="preserve"> AND(M$9 &gt;= $J11, M$9 &lt;= $K11, $I11 = "000")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13:AU13">
-    <cfRule type="expression" dxfId="51" priority="516">
+    <cfRule type="expression" dxfId="90" priority="555">
       <formula>WEEKDAY(M$9)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="517">
+    <cfRule type="expression" dxfId="89" priority="556">
       <formula>WEEKDAY(M$9)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="518">
+    <cfRule type="expression" dxfId="88" priority="557">
       <formula xml:space="preserve"> AND(M$9 &gt;= $J15, M$9 &lt;= $K13, $I13 = "000")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="519">
+    <cfRule type="expression" dxfId="87" priority="558">
       <formula xml:space="preserve"> AND(M$9 &gt;= $J15, M$9 &lt;= $K13, $I13 = "000")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="520">
+    <cfRule type="expression" dxfId="86" priority="559">
       <formula xml:space="preserve"> AND(M$9 &gt;= $J15, M$9 &lt;= $K13, $I13 = "000")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="521">
+    <cfRule type="expression" dxfId="85" priority="560">
       <formula xml:space="preserve"> AND(M$9 &gt;= $J15, M$9 &lt;= $K13, $I13 = "000")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="522">
+    <cfRule type="expression" dxfId="84" priority="561">
       <formula xml:space="preserve"> AND(M$9 &gt;= $J15, M$9 &lt;= $K13, $I13 = "000")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="523">
+    <cfRule type="expression" dxfId="83" priority="562">
       <formula xml:space="preserve"> AND(M$9 &gt;= $J15, M$9 &lt;= $K13, $I13 = "000")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="524">
+    <cfRule type="expression" dxfId="82" priority="563">
       <formula xml:space="preserve"> AND(M$9 &gt;= $J15, M$9 &lt;= $K13, $I13 = "000")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="525">
+    <cfRule type="expression" dxfId="81" priority="564">
       <formula xml:space="preserve"> AND(M$9 &gt;= $J15, M$9 &lt;= $K13, $I13 = "000")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="526">
+    <cfRule type="expression" dxfId="80" priority="565">
       <formula xml:space="preserve"> AND(M$9 &gt;= $J15, M$9 &lt;= $K13, $I13 = "000")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="527">
+    <cfRule type="expression" dxfId="79" priority="566">
       <formula xml:space="preserve"> AND(M$9 &gt;= $J15, M$9 &lt;= $K13, $I13 = "000")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="528">
+    <cfRule type="expression" dxfId="78" priority="567">
       <formula xml:space="preserve"> AND(M$9 &gt;= $J15, M$9 &lt;= $K13, $I13 = "000")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M15:AU15">
-    <cfRule type="expression" dxfId="38" priority="542">
+    <cfRule type="expression" dxfId="77" priority="581">
       <formula>WEEKDAY(M$9)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="543">
+    <cfRule type="expression" dxfId="76" priority="582">
       <formula>WEEKDAY(M$9)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="544">
+    <cfRule type="expression" dxfId="75" priority="583">
       <formula xml:space="preserve"> AND(M$9 &gt;= #REF!, M$9 &lt;= $K15, $I15 = "000")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="545">
+    <cfRule type="expression" dxfId="74" priority="584">
       <formula xml:space="preserve"> AND(M$9 &gt;= #REF!, M$9 &lt;= $K15, $I15 = "000")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="546">
+    <cfRule type="expression" dxfId="73" priority="585">
       <formula xml:space="preserve"> AND(M$9 &gt;= #REF!, M$9 &lt;= $K15, $I15 = "000")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="547">
+    <cfRule type="expression" dxfId="72" priority="586">
       <formula xml:space="preserve"> AND(M$9 &gt;= #REF!, M$9 &lt;= $K15, $I15 = "000")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="548">
+    <cfRule type="expression" dxfId="71" priority="587">
       <formula xml:space="preserve"> AND(M$9 &gt;= #REF!, M$9 &lt;= $K15, $I15 = "000")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="549">
+    <cfRule type="expression" dxfId="70" priority="588">
       <formula xml:space="preserve"> AND(M$9 &gt;= #REF!, M$9 &lt;= $K15, $I15 = "000")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="550">
+    <cfRule type="expression" dxfId="69" priority="589">
       <formula xml:space="preserve"> AND(M$9 &gt;= #REF!, M$9 &lt;= $K15, $I15 = "000")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="551">
+    <cfRule type="expression" dxfId="68" priority="590">
       <formula xml:space="preserve"> AND(M$9 &gt;= #REF!, M$9 &lt;= $K15, $I15 = "000")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="552">
+    <cfRule type="expression" dxfId="67" priority="591">
       <formula xml:space="preserve"> AND(M$9 &gt;= #REF!, M$9 &lt;= $K15, $I15 = "000")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="553">
+    <cfRule type="expression" dxfId="66" priority="592">
       <formula xml:space="preserve"> AND(M$9 &gt;= #REF!, M$9 &lt;= $K15, $I15 = "000")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="554">
+    <cfRule type="expression" dxfId="65" priority="593">
       <formula xml:space="preserve"> AND(M$9 &gt;= #REF!, M$9 &lt;= $K15, $I15 = "000")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG61">
+    <cfRule type="expression" dxfId="64" priority="53">
+      <formula>WEEKDAY(AG$9)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="63" priority="54">
+      <formula>WEEKDAY(AG$9)=7</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="55">
+      <formula xml:space="preserve"> AND(AG$9 &gt;= $J61, AG$9 &lt;= $K61, $I61 = "000")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="61" priority="56">
+      <formula xml:space="preserve"> AND(AG$9 &gt;= $J61, AG$9 &lt;= $K61, $I61 = "000")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="57">
+      <formula xml:space="preserve"> AND(AG$9 &gt;= $J61, AG$9 &lt;= $K61, $I61 = "000")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="59" priority="58">
+      <formula xml:space="preserve"> AND(AG$9 &gt;= $J61, AG$9 &lt;= $K61, $I61 = "000")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="59">
+      <formula xml:space="preserve"> AND(AG$9 &gt;= $J61, AG$9 &lt;= $K61, $I61 = "000")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="57" priority="60">
+      <formula xml:space="preserve"> AND(AG$9 &gt;= $J61, AG$9 &lt;= $K61, $I61 = "000")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="61">
+      <formula xml:space="preserve"> AND(AG$9 &gt;= $J61, AG$9 &lt;= $K61, $I61 = "000")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="55" priority="62">
+      <formula xml:space="preserve"> AND(AG$9 &gt;= $J61, AG$9 &lt;= $K61, $I61 = "000")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="63">
+      <formula xml:space="preserve"> AND(AG$9 &gt;= $J61, AG$9 &lt;= $K61, $I61 = "000")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="53" priority="64">
+      <formula xml:space="preserve"> AND(AG$9 &gt;= $J61, AG$9 &lt;= $K61, $I61 = "000")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="65">
+      <formula xml:space="preserve"> AND(AG$9 &gt;= $J61, AG$9 &lt;= $K61, $I61 = "000")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH61">
+    <cfRule type="expression" dxfId="51" priority="40">
+      <formula>WEEKDAY(AH$9)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="41">
+      <formula>WEEKDAY(AH$9)=7</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="49" priority="42">
+      <formula xml:space="preserve"> AND(AH$9 &gt;= $J61, AH$9 &lt;= $K61, $I61 = "000")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="43">
+      <formula xml:space="preserve"> AND(AH$9 &gt;= $J61, AH$9 &lt;= $K61, $I61 = "000")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="47" priority="44">
+      <formula xml:space="preserve"> AND(AH$9 &gt;= $J61, AH$9 &lt;= $K61, $I61 = "000")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="45">
+      <formula xml:space="preserve"> AND(AH$9 &gt;= $J61, AH$9 &lt;= $K61, $I61 = "000")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="46">
+      <formula xml:space="preserve"> AND(AH$9 &gt;= $J61, AH$9 &lt;= $K61, $I61 = "000")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="47">
+      <formula xml:space="preserve"> AND(AH$9 &gt;= $J61, AH$9 &lt;= $K61, $I61 = "000")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="48">
+      <formula xml:space="preserve"> AND(AH$9 &gt;= $J61, AH$9 &lt;= $K61, $I61 = "000")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="49">
+      <formula xml:space="preserve"> AND(AH$9 &gt;= $J61, AH$9 &lt;= $K61, $I61 = "000")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="41" priority="50">
+      <formula xml:space="preserve"> AND(AH$9 &gt;= $J61, AH$9 &lt;= $K61, $I61 = "000")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="51">
+      <formula xml:space="preserve"> AND(AH$9 &gt;= $J61, AH$9 &lt;= $K61, $I61 = "000")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="52">
+      <formula xml:space="preserve"> AND(AH$9 &gt;= $J61, AH$9 &lt;= $K61, $I61 = "000")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG36:AH36">
+    <cfRule type="expression" dxfId="38" priority="27">
+      <formula>WEEKDAY(AG$9)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="28">
+      <formula>WEEKDAY(AG$9)=7</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="29">
+      <formula xml:space="preserve"> AND(AG$9 &gt;= $J36, AG$9 &lt;= $K36, $I36 = "000")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="35" priority="30">
+      <formula xml:space="preserve"> AND(AG$9 &gt;= $J36, AG$9 &lt;= $K36, $I36 = "000")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="31">
+      <formula xml:space="preserve"> AND(AG$9 &gt;= $J36, AG$9 &lt;= $K36, $I36 = "000")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="32">
+      <formula xml:space="preserve"> AND(AG$9 &gt;= $J36, AG$9 &lt;= $K36, $I36 = "000")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="33">
+      <formula xml:space="preserve"> AND(AG$9 &gt;= $J36, AG$9 &lt;= $K36, $I36 = "000")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="34">
+      <formula xml:space="preserve"> AND(AG$9 &gt;= $J36, AG$9 &lt;= $K36, $I36 = "000")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="35">
+      <formula xml:space="preserve"> AND(AG$9 &gt;= $J36, AG$9 &lt;= $K36, $I36 = "000")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="29" priority="36">
+      <formula xml:space="preserve"> AND(AG$9 &gt;= $J36, AG$9 &lt;= $K36, $I36 = "000")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="37">
+      <formula xml:space="preserve"> AND(AG$9 &gt;= $J36, AG$9 &lt;= $K36, $I36 = "000")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="38">
+      <formula xml:space="preserve"> AND(AG$9 &gt;= $J36, AG$9 &lt;= $K36, $I36 = "000")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="39">
+      <formula xml:space="preserve"> AND(AG$9 &gt;= $J36, AG$9 &lt;= $K36, $I36 = "000")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG37:AH37">
     <cfRule type="expression" dxfId="25" priority="14">
       <formula>WEEKDAY(AG$9)=1</formula>
     </cfRule>
@@ -13739,78 +14153,78 @@
       <formula>WEEKDAY(AG$9)=7</formula>
     </cfRule>
     <cfRule type="expression" dxfId="23" priority="16">
-      <formula xml:space="preserve"> AND(AG$9 &gt;= $J61, AG$9 &lt;= $K61, $I61 = "000")</formula>
+      <formula xml:space="preserve"> AND(AG$9 &gt;= $J37, AG$9 &lt;= $K37, $I37 = "000")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="22" priority="17">
-      <formula xml:space="preserve"> AND(AG$9 &gt;= $J61, AG$9 &lt;= $K61, $I61 = "000")</formula>
+      <formula xml:space="preserve"> AND(AG$9 &gt;= $J37, AG$9 &lt;= $K37, $I37 = "000")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="21" priority="18">
-      <formula xml:space="preserve"> AND(AG$9 &gt;= $J61, AG$9 &lt;= $K61, $I61 = "000")</formula>
+      <formula xml:space="preserve"> AND(AG$9 &gt;= $J37, AG$9 &lt;= $K37, $I37 = "000")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="20" priority="19">
-      <formula xml:space="preserve"> AND(AG$9 &gt;= $J61, AG$9 &lt;= $K61, $I61 = "000")</formula>
+      <formula xml:space="preserve"> AND(AG$9 &gt;= $J37, AG$9 &lt;= $K37, $I37 = "000")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="19" priority="20">
-      <formula xml:space="preserve"> AND(AG$9 &gt;= $J61, AG$9 &lt;= $K61, $I61 = "000")</formula>
+      <formula xml:space="preserve"> AND(AG$9 &gt;= $J37, AG$9 &lt;= $K37, $I37 = "000")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="18" priority="21">
-      <formula xml:space="preserve"> AND(AG$9 &gt;= $J61, AG$9 &lt;= $K61, $I61 = "000")</formula>
+      <formula xml:space="preserve"> AND(AG$9 &gt;= $J37, AG$9 &lt;= $K37, $I37 = "000")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="17" priority="22">
-      <formula xml:space="preserve"> AND(AG$9 &gt;= $J61, AG$9 &lt;= $K61, $I61 = "000")</formula>
+      <formula xml:space="preserve"> AND(AG$9 &gt;= $J37, AG$9 &lt;= $K37, $I37 = "000")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="16" priority="23">
-      <formula xml:space="preserve"> AND(AG$9 &gt;= $J61, AG$9 &lt;= $K61, $I61 = "000")</formula>
+      <formula xml:space="preserve"> AND(AG$9 &gt;= $J37, AG$9 &lt;= $K37, $I37 = "000")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="15" priority="24">
-      <formula xml:space="preserve"> AND(AG$9 &gt;= $J61, AG$9 &lt;= $K61, $I61 = "000")</formula>
+      <formula xml:space="preserve"> AND(AG$9 &gt;= $J37, AG$9 &lt;= $K37, $I37 = "000")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="14" priority="25">
-      <formula xml:space="preserve"> AND(AG$9 &gt;= $J61, AG$9 &lt;= $K61, $I61 = "000")</formula>
+      <formula xml:space="preserve"> AND(AG$9 &gt;= $J37, AG$9 &lt;= $K37, $I37 = "000")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="13" priority="26">
-      <formula xml:space="preserve"> AND(AG$9 &gt;= $J61, AG$9 &lt;= $K61, $I61 = "000")</formula>
+      <formula xml:space="preserve"> AND(AG$9 &gt;= $J37, AG$9 &lt;= $K37, $I37 = "000")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH61">
+  <conditionalFormatting sqref="AG38:AH38">
     <cfRule type="expression" dxfId="12" priority="1">
-      <formula>WEEKDAY(AH$9)=1</formula>
+      <formula>WEEKDAY(AG$9)=1</formula>
     </cfRule>
     <cfRule type="expression" dxfId="11" priority="2">
-      <formula>WEEKDAY(AH$9)=7</formula>
+      <formula>WEEKDAY(AG$9)=7</formula>
     </cfRule>
     <cfRule type="expression" dxfId="10" priority="3">
-      <formula xml:space="preserve"> AND(AH$9 &gt;= $J61, AH$9 &lt;= $K61, $I61 = "000")</formula>
+      <formula xml:space="preserve"> AND(AG$9 &gt;= $J38, AG$9 &lt;= $K38, $I38 = "000")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="9" priority="4">
-      <formula xml:space="preserve"> AND(AH$9 &gt;= $J61, AH$9 &lt;= $K61, $I61 = "000")</formula>
+      <formula xml:space="preserve"> AND(AG$9 &gt;= $J38, AG$9 &lt;= $K38, $I38 = "000")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="8" priority="5">
-      <formula xml:space="preserve"> AND(AH$9 &gt;= $J61, AH$9 &lt;= $K61, $I61 = "000")</formula>
+      <formula xml:space="preserve"> AND(AG$9 &gt;= $J38, AG$9 &lt;= $K38, $I38 = "000")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="7" priority="6">
-      <formula xml:space="preserve"> AND(AH$9 &gt;= $J61, AH$9 &lt;= $K61, $I61 = "000")</formula>
+      <formula xml:space="preserve"> AND(AG$9 &gt;= $J38, AG$9 &lt;= $K38, $I38 = "000")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="6" priority="7">
-      <formula xml:space="preserve"> AND(AH$9 &gt;= $J61, AH$9 &lt;= $K61, $I61 = "000")</formula>
+      <formula xml:space="preserve"> AND(AG$9 &gt;= $J38, AG$9 &lt;= $K38, $I38 = "000")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="5" priority="8">
-      <formula xml:space="preserve"> AND(AH$9 &gt;= $J61, AH$9 &lt;= $K61, $I61 = "000")</formula>
+      <formula xml:space="preserve"> AND(AG$9 &gt;= $J38, AG$9 &lt;= $K38, $I38 = "000")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="9">
-      <formula xml:space="preserve"> AND(AH$9 &gt;= $J61, AH$9 &lt;= $K61, $I61 = "000")</formula>
+      <formula xml:space="preserve"> AND(AG$9 &gt;= $J38, AG$9 &lt;= $K38, $I38 = "000")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="3" priority="10">
-      <formula xml:space="preserve"> AND(AH$9 &gt;= $J61, AH$9 &lt;= $K61, $I61 = "000")</formula>
+      <formula xml:space="preserve"> AND(AG$9 &gt;= $J38, AG$9 &lt;= $K38, $I38 = "000")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="11">
-      <formula xml:space="preserve"> AND(AH$9 &gt;= $J61, AH$9 &lt;= $K61, $I61 = "000")</formula>
+      <formula xml:space="preserve"> AND(AG$9 &gt;= $J38, AG$9 &lt;= $K38, $I38 = "000")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="12">
-      <formula xml:space="preserve"> AND(AH$9 &gt;= $J61, AH$9 &lt;= $K61, $I61 = "000")</formula>
+      <formula xml:space="preserve"> AND(AG$9 &gt;= $J38, AG$9 &lt;= $K38, $I38 = "000")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="13">
-      <formula xml:space="preserve"> AND(AH$9 &gt;= $J61, AH$9 &lt;= $K61, $I61 = "000")</formula>
+      <formula xml:space="preserve"> AND(AG$9 &gt;= $J38, AG$9 &lt;= $K38, $I38 = "000")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13829,128 +14243,129 @@
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="3" spans="3:11">
-      <c r="C3" s="179"/>
-      <c r="D3" s="179"/>
-      <c r="E3" s="179"/>
-      <c r="F3" s="179"/>
-      <c r="G3" s="179"/>
-      <c r="H3" s="179"/>
-      <c r="I3" s="179"/>
-      <c r="J3" s="179"/>
-      <c r="K3" s="179"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
     </row>
     <row r="4" spans="3:11">
-      <c r="C4" s="179"/>
-      <c r="D4" s="179"/>
-      <c r="E4" s="179"/>
-      <c r="F4" s="179"/>
-      <c r="G4" s="179"/>
-      <c r="H4" s="179"/>
-      <c r="I4" s="179"/>
-      <c r="J4" s="179"/>
-      <c r="K4" s="179"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="136"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="136"/>
+      <c r="J4" s="136"/>
+      <c r="K4" s="136"/>
     </row>
     <row r="5" spans="3:11">
-      <c r="C5" s="179"/>
-      <c r="D5" s="179"/>
-      <c r="E5" s="179"/>
-      <c r="F5" s="179"/>
-      <c r="G5" s="179"/>
-      <c r="H5" s="179"/>
-      <c r="I5" s="179"/>
-      <c r="J5" s="179"/>
-      <c r="K5" s="179"/>
+      <c r="C5" s="136"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="136"/>
+      <c r="G5" s="136"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="136"/>
+      <c r="J5" s="136"/>
+      <c r="K5" s="136"/>
     </row>
     <row r="6" spans="3:11">
-      <c r="C6" s="179"/>
-      <c r="D6" s="179"/>
-      <c r="E6" s="179"/>
-      <c r="F6" s="179"/>
-      <c r="G6" s="179"/>
-      <c r="H6" s="179"/>
-      <c r="I6" s="179"/>
-      <c r="J6" s="179"/>
-      <c r="K6" s="179"/>
+      <c r="C6" s="136"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="136"/>
+      <c r="F6" s="136"/>
+      <c r="G6" s="136"/>
+      <c r="H6" s="136"/>
+      <c r="I6" s="136"/>
+      <c r="J6" s="136"/>
+      <c r="K6" s="136"/>
     </row>
     <row r="7" spans="3:11">
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
-      <c r="J7" s="179"/>
-      <c r="K7" s="179"/>
+      <c r="C7" s="136"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="136"/>
+      <c r="H7" s="136"/>
+      <c r="I7" s="136"/>
+      <c r="J7" s="136"/>
+      <c r="K7" s="136"/>
     </row>
     <row r="8" spans="3:11">
-      <c r="C8" s="179"/>
-      <c r="D8" s="179"/>
-      <c r="E8" s="179"/>
-      <c r="F8" s="179"/>
-      <c r="G8" s="179"/>
-      <c r="H8" s="179"/>
-      <c r="I8" s="179"/>
-      <c r="J8" s="179"/>
-      <c r="K8" s="179"/>
+      <c r="C8" s="136"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="136"/>
+      <c r="G8" s="136"/>
+      <c r="H8" s="136"/>
+      <c r="I8" s="136"/>
+      <c r="J8" s="136"/>
+      <c r="K8" s="136"/>
     </row>
     <row r="9" spans="3:11">
-      <c r="C9" s="179"/>
-      <c r="D9" s="179"/>
-      <c r="E9" s="179"/>
-      <c r="F9" s="179"/>
-      <c r="G9" s="179"/>
-      <c r="H9" s="179"/>
-      <c r="I9" s="179"/>
-      <c r="J9" s="179"/>
-      <c r="K9" s="179"/>
+      <c r="C9" s="136"/>
+      <c r="D9" s="136"/>
+      <c r="E9" s="136"/>
+      <c r="F9" s="136"/>
+      <c r="G9" s="136"/>
+      <c r="H9" s="136"/>
+      <c r="I9" s="136"/>
+      <c r="J9" s="136"/>
+      <c r="K9" s="136"/>
     </row>
     <row r="10" spans="3:11">
-      <c r="C10" s="179"/>
-      <c r="D10" s="179"/>
-      <c r="E10" s="179"/>
-      <c r="F10" s="179"/>
-      <c r="G10" s="179"/>
-      <c r="H10" s="179"/>
-      <c r="I10" s="179"/>
-      <c r="J10" s="179"/>
-      <c r="K10" s="179"/>
+      <c r="C10" s="136"/>
+      <c r="D10" s="136"/>
+      <c r="E10" s="136"/>
+      <c r="F10" s="136"/>
+      <c r="G10" s="136"/>
+      <c r="H10" s="136"/>
+      <c r="I10" s="136"/>
+      <c r="J10" s="136"/>
+      <c r="K10" s="136"/>
     </row>
     <row r="11" spans="3:11">
-      <c r="C11" s="179"/>
-      <c r="D11" s="179"/>
-      <c r="E11" s="179"/>
-      <c r="F11" s="179"/>
-      <c r="G11" s="179"/>
-      <c r="H11" s="179"/>
-      <c r="I11" s="179"/>
-      <c r="J11" s="179"/>
-      <c r="K11" s="179"/>
+      <c r="C11" s="136"/>
+      <c r="D11" s="136"/>
+      <c r="E11" s="136"/>
+      <c r="F11" s="136"/>
+      <c r="G11" s="136"/>
+      <c r="H11" s="136"/>
+      <c r="I11" s="136"/>
+      <c r="J11" s="136"/>
+      <c r="K11" s="136"/>
     </row>
     <row r="12" spans="3:11">
-      <c r="C12" s="179"/>
-      <c r="D12" s="179"/>
-      <c r="E12" s="179"/>
-      <c r="F12" s="179"/>
-      <c r="G12" s="179"/>
-      <c r="H12" s="179"/>
-      <c r="I12" s="179"/>
-      <c r="J12" s="179"/>
-      <c r="K12" s="179"/>
+      <c r="C12" s="136"/>
+      <c r="D12" s="136"/>
+      <c r="E12" s="136"/>
+      <c r="F12" s="136"/>
+      <c r="G12" s="136"/>
+      <c r="H12" s="136"/>
+      <c r="I12" s="136"/>
+      <c r="J12" s="136"/>
+      <c r="K12" s="136"/>
     </row>
     <row r="13" spans="3:11">
-      <c r="C13" s="179"/>
-      <c r="D13" s="179"/>
-      <c r="E13" s="179"/>
-      <c r="F13" s="179"/>
-      <c r="G13" s="179"/>
-      <c r="H13" s="179"/>
-      <c r="I13" s="179"/>
-      <c r="J13" s="179"/>
-      <c r="K13" s="179"/>
+      <c r="C13" s="136"/>
+      <c r="D13" s="136"/>
+      <c r="E13" s="136"/>
+      <c r="F13" s="136"/>
+      <c r="G13" s="136"/>
+      <c r="H13" s="136"/>
+      <c r="I13" s="136"/>
+      <c r="J13" s="136"/>
+      <c r="K13" s="136"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/WBS(WorkBreakdownStructure).xlsx
+++ b/WBS(WorkBreakdownStructure).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ParkBox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011DBB6F-5C07-4FCE-8901-107861A099ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4870E72-47EE-49BA-B909-28B8E3275AD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="800" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="292">
   <si>
     <t>오늘날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -737,10 +737,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4.3.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>무비스토리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -766,9 +762,6 @@
     <t>4.3.2.</t>
   </si>
   <si>
-    <t>4.3.3</t>
-  </si>
-  <si>
     <t>4.3.3.</t>
   </si>
   <si>
@@ -784,18 +777,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>영화목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>영화 상세페이지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>박스오피스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4.5.0.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -851,9 +836,6 @@
     <t>4.4.2.</t>
   </si>
   <si>
-    <t>4.4.3.</t>
-  </si>
-  <si>
     <t>4.5.2.</t>
   </si>
   <si>
@@ -1118,17 +1100,54 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10월 28일</t>
-  </si>
-  <si>
-    <t>10월 28일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>11월 1일</t>
   </si>
   <si>
     <t>10월 30일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.3.4.</t>
+  </si>
+  <si>
+    <t>4.3.5.</t>
+  </si>
+  <si>
+    <t>4.3.6.</t>
+  </si>
+  <si>
+    <t>나의 예매내역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10월 31일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11월 1일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10월 29일</t>
+  </si>
+  <si>
+    <t>10월 29일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11월 2일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11월 3일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11월 4일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화목록(박스오피스)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4617,6 +4636,12 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="84" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4656,6 +4681,66 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="91" fillId="18" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="91" fillId="18" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="236" fontId="91" fillId="18" borderId="59" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="236" fontId="91" fillId="18" borderId="67" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="8" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="8" borderId="62" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="8" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="8" borderId="49" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="8" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="8" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="8" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="8" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="88" fillId="6" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4682,72 +4767,6 @@
     </xf>
     <xf numFmtId="0" fontId="81" fillId="6" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="91" fillId="18" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="91" fillId="18" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="236" fontId="91" fillId="18" borderId="59" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="236" fontId="91" fillId="18" borderId="67" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="8" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="8" borderId="62" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="8" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="8" borderId="49" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="8" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="8" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="91" fillId="8" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="91" fillId="8" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="92" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="84" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="880">
@@ -5634,195 +5653,7 @@
     <cellStyle name="화폐기호" xfId="726" xr:uid="{00000000-0005-0000-0000-00006E030000}"/>
     <cellStyle name="화폐기호0" xfId="727" xr:uid="{00000000-0005-0000-0000-00006F030000}"/>
   </cellStyles>
-  <dxfs count="110">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="84">
     <dxf>
       <fill>
         <patternFill>
@@ -6826,7 +6657,7 @@
       </c>
       <c r="M1" s="56">
         <f ca="1">TODAY()</f>
-        <v>44135</v>
+        <v>44138</v>
       </c>
       <c r="N1" s="55"/>
       <c r="O1" s="57"/>
@@ -6835,34 +6666,34 @@
       <c r="R1" s="23"/>
     </row>
     <row r="2" spans="2:18" ht="17.25" thickBot="1">
-      <c r="B2" s="139" t="s">
+      <c r="B2" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="140"/>
-      <c r="D2" s="143" t="s">
+      <c r="C2" s="142"/>
+      <c r="D2" s="145" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="143" t="s">
+      <c r="E2" s="145" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="145" t="s">
+      <c r="F2" s="147" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
-      <c r="K2" s="146"/>
-      <c r="L2" s="146"/>
-      <c r="M2" s="146"/>
-      <c r="N2" s="146"/>
-      <c r="O2" s="147"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="148"/>
+      <c r="M2" s="148"/>
+      <c r="N2" s="148"/>
+      <c r="O2" s="149"/>
     </row>
     <row r="3" spans="2:18" ht="17.25" thickBot="1">
-      <c r="B3" s="141"/>
-      <c r="C3" s="142"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="144"/>
+      <c r="B3" s="143"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="146"/>
       <c r="F3" s="1">
         <v>1</v>
       </c>
@@ -6895,7 +6726,7 @@
       </c>
     </row>
     <row r="4" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B4" s="148" t="s">
+      <c r="B4" s="150" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -6917,7 +6748,7 @@
       <c r="O4" s="37"/>
     </row>
     <row r="5" spans="2:18">
-      <c r="B5" s="149"/>
+      <c r="B5" s="151"/>
       <c r="C5" s="8" t="s">
         <v>30</v>
       </c>
@@ -6937,7 +6768,7 @@
       <c r="O5" s="39"/>
     </row>
     <row r="6" spans="2:18">
-      <c r="B6" s="149"/>
+      <c r="B6" s="151"/>
       <c r="C6" s="8" t="s">
         <v>31</v>
       </c>
@@ -6957,7 +6788,7 @@
       <c r="O6" s="39"/>
     </row>
     <row r="7" spans="2:18">
-      <c r="B7" s="149"/>
+      <c r="B7" s="151"/>
       <c r="C7" s="8" t="s">
         <v>32</v>
       </c>
@@ -6977,7 +6808,7 @@
       <c r="O7" s="39"/>
     </row>
     <row r="8" spans="2:18">
-      <c r="B8" s="149"/>
+      <c r="B8" s="151"/>
       <c r="C8" s="8" t="s">
         <v>33</v>
       </c>
@@ -6997,7 +6828,7 @@
       <c r="O8" s="39"/>
     </row>
     <row r="9" spans="2:18">
-      <c r="B9" s="149"/>
+      <c r="B9" s="151"/>
       <c r="C9" s="8" t="s">
         <v>34</v>
       </c>
@@ -7017,7 +6848,7 @@
       <c r="O9" s="39"/>
     </row>
     <row r="10" spans="2:18">
-      <c r="B10" s="149"/>
+      <c r="B10" s="151"/>
       <c r="C10" s="8" t="s">
         <v>35</v>
       </c>
@@ -7037,7 +6868,7 @@
       <c r="O10" s="39"/>
     </row>
     <row r="11" spans="2:18">
-      <c r="B11" s="149"/>
+      <c r="B11" s="151"/>
       <c r="C11" s="8" t="s">
         <v>36</v>
       </c>
@@ -7057,7 +6888,7 @@
       <c r="O11" s="39"/>
     </row>
     <row r="12" spans="2:18">
-      <c r="B12" s="149"/>
+      <c r="B12" s="151"/>
       <c r="C12" s="8" t="s">
         <v>37</v>
       </c>
@@ -7077,7 +6908,7 @@
       <c r="O12" s="39"/>
     </row>
     <row r="13" spans="2:18">
-      <c r="B13" s="149"/>
+      <c r="B13" s="151"/>
       <c r="C13" s="8" t="s">
         <v>38</v>
       </c>
@@ -7097,7 +6928,7 @@
       <c r="O13" s="39"/>
     </row>
     <row r="14" spans="2:18">
-      <c r="B14" s="149"/>
+      <c r="B14" s="151"/>
       <c r="C14" s="8" t="s">
         <v>39</v>
       </c>
@@ -7117,7 +6948,7 @@
       <c r="O14" s="39"/>
     </row>
     <row r="15" spans="2:18">
-      <c r="B15" s="149"/>
+      <c r="B15" s="151"/>
       <c r="C15" s="8" t="s">
         <v>40</v>
       </c>
@@ -7137,7 +6968,7 @@
       <c r="O15" s="39"/>
     </row>
     <row r="16" spans="2:18">
-      <c r="B16" s="149"/>
+      <c r="B16" s="151"/>
       <c r="C16" s="8" t="s">
         <v>41</v>
       </c>
@@ -7157,7 +6988,7 @@
       <c r="O16" s="39"/>
     </row>
     <row r="17" spans="2:15" ht="17.25" thickBot="1">
-      <c r="B17" s="144"/>
+      <c r="B17" s="146"/>
       <c r="C17" s="13" t="s">
         <v>28</v>
       </c>
@@ -7177,7 +7008,7 @@
       <c r="O17" s="54"/>
     </row>
     <row r="18" spans="2:15">
-      <c r="B18" s="150" t="s">
+      <c r="B18" s="152" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="33" t="s">
@@ -7199,7 +7030,7 @@
       <c r="O18" s="44"/>
     </row>
     <row r="19" spans="2:15">
-      <c r="B19" s="149"/>
+      <c r="B19" s="151"/>
       <c r="C19" s="8" t="s">
         <v>56</v>
       </c>
@@ -7219,7 +7050,7 @@
       <c r="O19" s="39"/>
     </row>
     <row r="20" spans="2:15">
-      <c r="B20" s="149"/>
+      <c r="B20" s="151"/>
       <c r="C20" s="8" t="s">
         <v>57</v>
       </c>
@@ -7239,7 +7070,7 @@
       <c r="O20" s="39"/>
     </row>
     <row r="21" spans="2:15">
-      <c r="B21" s="149"/>
+      <c r="B21" s="151"/>
       <c r="C21" s="8" t="s">
         <v>59</v>
       </c>
@@ -7259,7 +7090,7 @@
       <c r="O21" s="39"/>
     </row>
     <row r="22" spans="2:15">
-      <c r="B22" s="149"/>
+      <c r="B22" s="151"/>
       <c r="C22" s="8" t="s">
         <v>58</v>
       </c>
@@ -7279,7 +7110,7 @@
       <c r="O22" s="39"/>
     </row>
     <row r="23" spans="2:15">
-      <c r="B23" s="149"/>
+      <c r="B23" s="151"/>
       <c r="C23" s="8" t="s">
         <v>60</v>
       </c>
@@ -7299,7 +7130,7 @@
       <c r="O23" s="39"/>
     </row>
     <row r="24" spans="2:15" ht="17.25" thickBot="1">
-      <c r="B24" s="144"/>
+      <c r="B24" s="146"/>
       <c r="C24" s="13" t="s">
         <v>21</v>
       </c>
@@ -7319,7 +7150,7 @@
       <c r="O24" s="42"/>
     </row>
     <row r="25" spans="2:15">
-      <c r="B25" s="150" t="s">
+      <c r="B25" s="152" t="s">
         <v>25</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -7341,7 +7172,7 @@
       <c r="O25" s="39"/>
     </row>
     <row r="26" spans="2:15">
-      <c r="B26" s="149"/>
+      <c r="B26" s="151"/>
       <c r="C26" s="8" t="s">
         <v>67</v>
       </c>
@@ -7361,7 +7192,7 @@
       <c r="O26" s="39"/>
     </row>
     <row r="27" spans="2:15">
-      <c r="B27" s="149"/>
+      <c r="B27" s="151"/>
       <c r="C27" s="8" t="s">
         <v>68</v>
       </c>
@@ -7381,7 +7212,7 @@
       <c r="O27" s="39"/>
     </row>
     <row r="28" spans="2:15">
-      <c r="B28" s="149"/>
+      <c r="B28" s="151"/>
       <c r="C28" s="60" t="s">
         <v>73</v>
       </c>
@@ -7401,7 +7232,7 @@
       <c r="O28" s="66"/>
     </row>
     <row r="29" spans="2:15" ht="17.25" thickBot="1">
-      <c r="B29" s="144"/>
+      <c r="B29" s="146"/>
       <c r="C29" s="13" t="s">
         <v>69</v>
       </c>
@@ -7421,7 +7252,7 @@
       <c r="O29" s="42"/>
     </row>
     <row r="30" spans="2:15" ht="16.5" customHeight="1">
-      <c r="B30" s="148" t="s">
+      <c r="B30" s="150" t="s">
         <v>26</v>
       </c>
       <c r="C30" s="3" t="s">
@@ -7443,7 +7274,7 @@
       <c r="O30" s="37"/>
     </row>
     <row r="31" spans="2:15" ht="17.25" thickBot="1">
-      <c r="B31" s="151"/>
+      <c r="B31" s="153"/>
       <c r="C31" s="8" t="s">
         <v>21</v>
       </c>
@@ -7463,7 +7294,7 @@
       <c r="O31" s="44"/>
     </row>
     <row r="32" spans="2:15">
-      <c r="B32" s="148" t="s">
+      <c r="B32" s="150" t="s">
         <v>42</v>
       </c>
       <c r="C32" s="3" t="s">
@@ -7485,7 +7316,7 @@
       <c r="O32" s="37"/>
     </row>
     <row r="33" spans="2:15">
-      <c r="B33" s="149"/>
+      <c r="B33" s="151"/>
       <c r="C33" s="8" t="s">
         <v>78</v>
       </c>
@@ -7505,7 +7336,7 @@
       </c>
     </row>
     <row r="34" spans="2:15">
-      <c r="B34" s="149"/>
+      <c r="B34" s="151"/>
       <c r="C34" s="8" t="s">
         <v>80</v>
       </c>
@@ -7525,7 +7356,7 @@
       </c>
     </row>
     <row r="35" spans="2:15" ht="17.25" thickBot="1">
-      <c r="B35" s="144"/>
+      <c r="B35" s="146"/>
       <c r="C35" s="13" t="s">
         <v>21</v>
       </c>
@@ -7558,12 +7389,12 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="R1">
-    <cfRule type="containsText" dxfId="109" priority="2" operator="containsText" text="미완료">
+    <cfRule type="containsText" dxfId="83" priority="2" operator="containsText" text="미완료">
       <formula>NOT(ISERROR(SEARCH("미완료",R1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1">
-    <cfRule type="containsText" dxfId="108" priority="1" operator="containsText" text="오늘">
+    <cfRule type="containsText" dxfId="82" priority="1" operator="containsText" text="오늘">
       <formula>NOT(ISERROR(SEARCH("오늘",P1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7578,10 +7409,10 @@
   <dimension ref="A1:AU113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="12" ySplit="9" topLeftCell="M100" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="12" ySplit="9" topLeftCell="M41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="L37" sqref="L37"/>
+      <selection pane="bottomRight" activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="16.5"/>
@@ -7603,12 +7434,12 @@
       <c r="A1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="154" t="s">
+      <c r="B1" s="176" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="155"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="177"/>
       <c r="F1" s="29"/>
       <c r="G1" s="29"/>
       <c r="H1" s="29"/>
@@ -7623,12 +7454,12 @@
       <c r="A2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="155" t="s">
+      <c r="B2" s="177" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
       <c r="F2" s="29"/>
       <c r="G2" s="29"/>
       <c r="H2" s="29"/>
@@ -7643,12 +7474,12 @@
       <c r="A3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="157" t="s">
+      <c r="B3" s="179" t="s">
         <v>123</v>
       </c>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="158"/>
+      <c r="C3" s="180"/>
+      <c r="D3" s="180"/>
+      <c r="E3" s="180"/>
       <c r="F3" s="29"/>
       <c r="G3" s="29"/>
       <c r="H3" s="29"/>
@@ -7663,12 +7494,12 @@
       <c r="A4" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="159">
+      <c r="B4" s="181">
         <v>1</v>
       </c>
-      <c r="C4" s="160"/>
-      <c r="D4" s="160"/>
-      <c r="E4" s="160"/>
+      <c r="C4" s="182"/>
+      <c r="D4" s="182"/>
+      <c r="E4" s="182"/>
       <c r="F4" s="29"/>
       <c r="G4" s="29"/>
       <c r="H4" s="29"/>
@@ -7683,16 +7514,16 @@
       <c r="A5" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="152">
+      <c r="B5" s="174">
         <v>44131</v>
       </c>
-      <c r="C5" s="153"/>
-      <c r="D5" s="153"/>
-      <c r="E5" s="153"/>
+      <c r="C5" s="175"/>
+      <c r="D5" s="175"/>
+      <c r="E5" s="175"/>
       <c r="F5" s="29"/>
       <c r="G5" s="29"/>
       <c r="H5" s="29"/>
-      <c r="I5" s="181"/>
+      <c r="I5" s="139"/>
       <c r="J5" s="135" t="s">
         <v>157</v>
       </c>
@@ -7700,144 +7531,144 @@
       <c r="L5"/>
     </row>
     <row r="6" spans="1:47" ht="16.5" customHeight="1">
-      <c r="A6" s="168" t="s">
+      <c r="A6" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="169"/>
-      <c r="C6" s="169"/>
-      <c r="D6" s="169"/>
-      <c r="E6" s="169"/>
-      <c r="F6" s="169"/>
-      <c r="G6" s="169"/>
-      <c r="H6" s="169"/>
-      <c r="I6" s="169"/>
-      <c r="J6" s="169"/>
-      <c r="K6" s="169"/>
-      <c r="L6" s="169"/>
-      <c r="M6" s="162" t="s">
+      <c r="B6" s="166"/>
+      <c r="C6" s="166"/>
+      <c r="D6" s="166"/>
+      <c r="E6" s="166"/>
+      <c r="F6" s="166"/>
+      <c r="G6" s="166"/>
+      <c r="H6" s="166"/>
+      <c r="I6" s="166"/>
+      <c r="J6" s="166"/>
+      <c r="K6" s="166"/>
+      <c r="L6" s="166"/>
+      <c r="M6" s="159" t="s">
         <v>87</v>
       </c>
-      <c r="N6" s="162"/>
-      <c r="O6" s="162"/>
-      <c r="P6" s="162"/>
-      <c r="Q6" s="162"/>
-      <c r="R6" s="162"/>
-      <c r="S6" s="162"/>
-      <c r="T6" s="162"/>
-      <c r="U6" s="162"/>
-      <c r="V6" s="162"/>
-      <c r="W6" s="162"/>
-      <c r="X6" s="162"/>
-      <c r="Y6" s="162"/>
-      <c r="Z6" s="162"/>
-      <c r="AA6" s="162"/>
-      <c r="AB6" s="162"/>
-      <c r="AC6" s="162"/>
-      <c r="AD6" s="162"/>
-      <c r="AE6" s="162"/>
-      <c r="AF6" s="162"/>
-      <c r="AG6" s="162"/>
-      <c r="AH6" s="161" t="s">
+      <c r="N6" s="159"/>
+      <c r="O6" s="159"/>
+      <c r="P6" s="159"/>
+      <c r="Q6" s="159"/>
+      <c r="R6" s="159"/>
+      <c r="S6" s="159"/>
+      <c r="T6" s="159"/>
+      <c r="U6" s="159"/>
+      <c r="V6" s="159"/>
+      <c r="W6" s="159"/>
+      <c r="X6" s="159"/>
+      <c r="Y6" s="159"/>
+      <c r="Z6" s="159"/>
+      <c r="AA6" s="159"/>
+      <c r="AB6" s="159"/>
+      <c r="AC6" s="159"/>
+      <c r="AD6" s="159"/>
+      <c r="AE6" s="159"/>
+      <c r="AF6" s="159"/>
+      <c r="AG6" s="159"/>
+      <c r="AH6" s="158" t="s">
         <v>88</v>
       </c>
-      <c r="AI6" s="162"/>
-      <c r="AJ6" s="162"/>
-      <c r="AK6" s="162"/>
-      <c r="AL6" s="162"/>
-      <c r="AM6" s="162"/>
-      <c r="AN6" s="162"/>
-      <c r="AO6" s="162"/>
-      <c r="AP6" s="162"/>
-      <c r="AQ6" s="162"/>
-      <c r="AR6" s="162"/>
-      <c r="AS6" s="162"/>
-      <c r="AT6" s="162"/>
-      <c r="AU6" s="162"/>
+      <c r="AI6" s="159"/>
+      <c r="AJ6" s="159"/>
+      <c r="AK6" s="159"/>
+      <c r="AL6" s="159"/>
+      <c r="AM6" s="159"/>
+      <c r="AN6" s="159"/>
+      <c r="AO6" s="159"/>
+      <c r="AP6" s="159"/>
+      <c r="AQ6" s="159"/>
+      <c r="AR6" s="159"/>
+      <c r="AS6" s="159"/>
+      <c r="AT6" s="159"/>
+      <c r="AU6" s="159"/>
     </row>
     <row r="7" spans="1:47" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A7" s="170"/>
-      <c r="B7" s="171"/>
-      <c r="C7" s="171"/>
-      <c r="D7" s="171"/>
-      <c r="E7" s="171"/>
-      <c r="F7" s="171"/>
-      <c r="G7" s="171"/>
-      <c r="H7" s="171"/>
-      <c r="I7" s="171"/>
-      <c r="J7" s="171"/>
-      <c r="K7" s="171"/>
-      <c r="L7" s="171"/>
-      <c r="M7" s="161" t="s">
+      <c r="A7" s="167"/>
+      <c r="B7" s="168"/>
+      <c r="C7" s="168"/>
+      <c r="D7" s="168"/>
+      <c r="E7" s="168"/>
+      <c r="F7" s="168"/>
+      <c r="G7" s="168"/>
+      <c r="H7" s="168"/>
+      <c r="I7" s="168"/>
+      <c r="J7" s="168"/>
+      <c r="K7" s="168"/>
+      <c r="L7" s="168"/>
+      <c r="M7" s="158" t="s">
         <v>99</v>
       </c>
-      <c r="N7" s="162"/>
-      <c r="O7" s="162"/>
-      <c r="P7" s="162"/>
-      <c r="Q7" s="162"/>
-      <c r="R7" s="162"/>
-      <c r="S7" s="163"/>
-      <c r="T7" s="161" t="s">
+      <c r="N7" s="159"/>
+      <c r="O7" s="159"/>
+      <c r="P7" s="159"/>
+      <c r="Q7" s="159"/>
+      <c r="R7" s="159"/>
+      <c r="S7" s="160"/>
+      <c r="T7" s="158" t="s">
         <v>100</v>
       </c>
-      <c r="U7" s="162"/>
-      <c r="V7" s="162"/>
-      <c r="W7" s="162"/>
-      <c r="X7" s="162"/>
-      <c r="Y7" s="162"/>
-      <c r="Z7" s="163"/>
-      <c r="AA7" s="161" t="s">
+      <c r="U7" s="159"/>
+      <c r="V7" s="159"/>
+      <c r="W7" s="159"/>
+      <c r="X7" s="159"/>
+      <c r="Y7" s="159"/>
+      <c r="Z7" s="160"/>
+      <c r="AA7" s="158" t="s">
         <v>101</v>
       </c>
-      <c r="AB7" s="162"/>
-      <c r="AC7" s="162"/>
-      <c r="AD7" s="162"/>
-      <c r="AE7" s="162"/>
-      <c r="AF7" s="162"/>
-      <c r="AG7" s="163"/>
-      <c r="AH7" s="161" t="s">
+      <c r="AB7" s="159"/>
+      <c r="AC7" s="159"/>
+      <c r="AD7" s="159"/>
+      <c r="AE7" s="159"/>
+      <c r="AF7" s="159"/>
+      <c r="AG7" s="160"/>
+      <c r="AH7" s="158" t="s">
         <v>97</v>
       </c>
-      <c r="AI7" s="162"/>
-      <c r="AJ7" s="162"/>
-      <c r="AK7" s="162"/>
-      <c r="AL7" s="162"/>
-      <c r="AM7" s="162"/>
-      <c r="AN7" s="163"/>
-      <c r="AO7" s="161" t="s">
+      <c r="AI7" s="159"/>
+      <c r="AJ7" s="159"/>
+      <c r="AK7" s="159"/>
+      <c r="AL7" s="159"/>
+      <c r="AM7" s="159"/>
+      <c r="AN7" s="160"/>
+      <c r="AO7" s="158" t="s">
         <v>98</v>
       </c>
-      <c r="AP7" s="162"/>
-      <c r="AQ7" s="162"/>
-      <c r="AR7" s="162"/>
-      <c r="AS7" s="162"/>
-      <c r="AT7" s="162"/>
-      <c r="AU7" s="163"/>
+      <c r="AP7" s="159"/>
+      <c r="AQ7" s="159"/>
+      <c r="AR7" s="159"/>
+      <c r="AS7" s="159"/>
+      <c r="AT7" s="159"/>
+      <c r="AU7" s="160"/>
     </row>
     <row r="8" spans="1:47" s="73" customFormat="1">
-      <c r="A8" s="172" t="s">
+      <c r="A8" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="174" t="s">
+      <c r="B8" s="171" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="174"/>
-      <c r="D8" s="174" t="s">
+      <c r="C8" s="171"/>
+      <c r="D8" s="171" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="174"/>
-      <c r="F8" s="176" t="s">
+      <c r="E8" s="171"/>
+      <c r="F8" s="173" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="176"/>
-      <c r="H8" s="176"/>
-      <c r="I8" s="166" t="s">
+      <c r="G8" s="173"/>
+      <c r="H8" s="173"/>
+      <c r="I8" s="163" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="164" t="s">
+      <c r="J8" s="161" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="165"/>
-      <c r="L8" s="166" t="s">
+      <c r="K8" s="162"/>
+      <c r="L8" s="163" t="s">
         <v>93</v>
       </c>
       <c r="M8" s="97">
@@ -7982,11 +7813,11 @@
       </c>
     </row>
     <row r="9" spans="1:47" s="72" customFormat="1">
-      <c r="A9" s="173"/>
-      <c r="B9" s="175"/>
-      <c r="C9" s="175"/>
-      <c r="D9" s="175"/>
-      <c r="E9" s="175"/>
+      <c r="A9" s="170"/>
+      <c r="B9" s="172"/>
+      <c r="C9" s="172"/>
+      <c r="D9" s="172"/>
+      <c r="E9" s="172"/>
       <c r="F9" s="78" t="s">
         <v>16</v>
       </c>
@@ -7996,14 +7827,14 @@
       <c r="H9" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="167"/>
+      <c r="I9" s="164"/>
       <c r="J9" s="75" t="s">
         <v>19</v>
       </c>
       <c r="K9" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="167"/>
+      <c r="L9" s="164"/>
       <c r="M9" s="74">
         <v>44115</v>
       </c>
@@ -8443,10 +8274,10 @@
       <c r="D16" s="119" t="s">
         <v>91</v>
       </c>
-      <c r="E16" s="177" t="s">
+      <c r="E16" s="154" t="s">
         <v>128</v>
       </c>
-      <c r="F16" s="178"/>
+      <c r="F16" s="155"/>
       <c r="G16" s="93"/>
       <c r="H16" s="93"/>
       <c r="I16" s="81" t="s">
@@ -8498,10 +8329,10 @@
       <c r="D17" s="113" t="s">
         <v>126</v>
       </c>
-      <c r="E17" s="179" t="s">
+      <c r="E17" s="156" t="s">
         <v>129</v>
       </c>
-      <c r="F17" s="180"/>
+      <c r="F17" s="157"/>
       <c r="G17" s="93"/>
       <c r="H17" s="93"/>
       <c r="I17" s="81" t="s">
@@ -8553,10 +8384,10 @@
       <c r="D18" s="113" t="s">
         <v>127</v>
       </c>
-      <c r="E18" s="179" t="s">
+      <c r="E18" s="156" t="s">
         <v>130</v>
       </c>
-      <c r="F18" s="180"/>
+      <c r="F18" s="157"/>
       <c r="G18" s="93"/>
       <c r="H18" s="93"/>
       <c r="I18" s="81" t="s">
@@ -9483,12 +9314,8 @@
       <c r="G35" s="93"/>
       <c r="H35" s="93"/>
       <c r="I35" s="81"/>
-      <c r="J35" s="82" t="s">
-        <v>284</v>
-      </c>
-      <c r="K35" s="83" t="s">
-        <v>286</v>
-      </c>
+      <c r="J35" s="82"/>
+      <c r="K35" s="83"/>
       <c r="L35" s="81"/>
       <c r="M35" s="96"/>
       <c r="N35" s="105"/>
@@ -9543,10 +9370,10 @@
         <v>119</v>
       </c>
       <c r="J36" s="82" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="K36" s="83" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="L36" s="102"/>
       <c r="M36" s="96"/>
@@ -9567,8 +9394,8 @@
       <c r="AB36" s="96"/>
       <c r="AC36" s="96"/>
       <c r="AD36" s="96"/>
-      <c r="AE36" s="182"/>
-      <c r="AF36" s="182"/>
+      <c r="AE36" s="140"/>
+      <c r="AF36" s="140"/>
       <c r="AG36" s="96"/>
       <c r="AH36" s="96"/>
       <c r="AI36" s="96"/>
@@ -9602,10 +9429,10 @@
         <v>119</v>
       </c>
       <c r="J37" s="82" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="K37" s="83" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="L37" s="102"/>
       <c r="M37" s="96"/>
@@ -9626,8 +9453,8 @@
       <c r="AB37" s="96"/>
       <c r="AC37" s="96"/>
       <c r="AD37" s="96"/>
-      <c r="AE37" s="182"/>
-      <c r="AF37" s="182"/>
+      <c r="AE37" s="140"/>
+      <c r="AF37" s="140"/>
       <c r="AG37" s="96"/>
       <c r="AH37" s="96"/>
       <c r="AI37" s="96"/>
@@ -9661,10 +9488,10 @@
         <v>120</v>
       </c>
       <c r="J38" s="82" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="K38" s="83" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="L38" s="102"/>
       <c r="M38" s="96"/>
@@ -9685,8 +9512,8 @@
       <c r="AB38" s="96"/>
       <c r="AC38" s="96"/>
       <c r="AD38" s="96"/>
-      <c r="AE38" s="182"/>
-      <c r="AF38" s="182"/>
+      <c r="AE38" s="140"/>
+      <c r="AF38" s="140"/>
       <c r="AG38" s="96"/>
       <c r="AH38" s="96"/>
       <c r="AI38" s="96"/>
@@ -9717,12 +9544,8 @@
       <c r="G39" s="101"/>
       <c r="H39" s="101"/>
       <c r="I39" s="81"/>
-      <c r="J39" s="82" t="s">
-        <v>283</v>
-      </c>
-      <c r="K39" s="83" t="s">
-        <v>285</v>
-      </c>
+      <c r="J39" s="82"/>
+      <c r="K39" s="83"/>
       <c r="L39" s="102"/>
       <c r="M39" s="96"/>
       <c r="N39" s="105"/>
@@ -9776,12 +9599,8 @@
       <c r="I40" s="81" t="s">
         <v>118</v>
       </c>
-      <c r="J40" s="82" t="s">
-        <v>283</v>
-      </c>
-      <c r="K40" s="83" t="s">
-        <v>285</v>
-      </c>
+      <c r="J40" s="82"/>
+      <c r="K40" s="83"/>
       <c r="L40" s="102"/>
       <c r="M40" s="96"/>
       <c r="N40" s="105"/>
@@ -9824,7 +9643,7 @@
       <c r="B41" s="99"/>
       <c r="C41" s="100"/>
       <c r="D41" s="92" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E41" s="100" t="s">
         <v>176</v>
@@ -9835,12 +9654,8 @@
       <c r="I41" s="81" t="s">
         <v>118</v>
       </c>
-      <c r="J41" s="82" t="s">
-        <v>283</v>
-      </c>
-      <c r="K41" s="83" t="s">
-        <v>285</v>
-      </c>
+      <c r="J41" s="82"/>
+      <c r="K41" s="83"/>
       <c r="L41" s="102"/>
       <c r="M41" s="96"/>
       <c r="N41" s="105"/>
@@ -9883,7 +9698,7 @@
       <c r="B42" s="99"/>
       <c r="C42" s="100"/>
       <c r="D42" s="92" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E42" s="100" t="s">
         <v>177</v>
@@ -9894,12 +9709,8 @@
       <c r="I42" s="81" t="s">
         <v>118</v>
       </c>
-      <c r="J42" s="82" t="s">
-        <v>283</v>
-      </c>
-      <c r="K42" s="83" t="s">
-        <v>285</v>
-      </c>
+      <c r="J42" s="82"/>
+      <c r="K42" s="83"/>
       <c r="L42" s="102"/>
       <c r="M42" s="96"/>
       <c r="N42" s="105"/>
@@ -9951,12 +9762,8 @@
       <c r="G43" s="101"/>
       <c r="H43" s="101"/>
       <c r="I43" s="81"/>
-      <c r="J43" s="82" t="s">
-        <v>283</v>
-      </c>
-      <c r="K43" s="83" t="s">
-        <v>285</v>
-      </c>
+      <c r="J43" s="82"/>
+      <c r="K43" s="83"/>
       <c r="L43" s="102"/>
       <c r="M43" s="96"/>
       <c r="N43" s="105"/>
@@ -10011,10 +9818,10 @@
         <v>119</v>
       </c>
       <c r="J44" s="82" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K44" s="83" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="L44" s="102"/>
       <c r="M44" s="96"/>
@@ -10035,10 +9842,10 @@
       <c r="AB44" s="96"/>
       <c r="AC44" s="96"/>
       <c r="AD44" s="96"/>
-      <c r="AE44" s="107"/>
-      <c r="AF44" s="107"/>
-      <c r="AG44" s="107"/>
-      <c r="AH44" s="107"/>
+      <c r="AE44" s="105"/>
+      <c r="AF44" s="105"/>
+      <c r="AG44" s="140"/>
+      <c r="AH44" s="140"/>
       <c r="AI44" s="96"/>
       <c r="AJ44" s="96"/>
       <c r="AK44" s="96"/>
@@ -10058,19 +9865,19 @@
       <c r="B45" s="99"/>
       <c r="C45" s="100"/>
       <c r="D45" s="92" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E45" s="100" t="s">
-        <v>183</v>
+        <v>283</v>
       </c>
       <c r="F45" s="101"/>
       <c r="G45" s="101"/>
       <c r="H45" s="101"/>
       <c r="I45" s="81" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J45" s="82" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K45" s="83" t="s">
         <v>285</v>
@@ -10094,10 +9901,10 @@
       <c r="AB45" s="96"/>
       <c r="AC45" s="96"/>
       <c r="AD45" s="96"/>
-      <c r="AE45" s="138"/>
-      <c r="AF45" s="138"/>
-      <c r="AG45" s="138"/>
-      <c r="AH45" s="138"/>
+      <c r="AE45" s="105"/>
+      <c r="AF45" s="105"/>
+      <c r="AG45" s="140"/>
+      <c r="AH45" s="140"/>
       <c r="AI45" s="96"/>
       <c r="AJ45" s="96"/>
       <c r="AK45" s="96"/>
@@ -10120,7 +9927,7 @@
         <v>189</v>
       </c>
       <c r="E46" s="100" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F46" s="101"/>
       <c r="G46" s="101"/>
@@ -10128,12 +9935,8 @@
       <c r="I46" s="81" t="s">
         <v>118</v>
       </c>
-      <c r="J46" s="82" t="s">
-        <v>283</v>
-      </c>
-      <c r="K46" s="83" t="s">
-        <v>285</v>
-      </c>
+      <c r="J46" s="82"/>
+      <c r="K46" s="83"/>
       <c r="L46" s="102"/>
       <c r="M46" s="96"/>
       <c r="N46" s="105"/>
@@ -10176,10 +9979,10 @@
       <c r="B47" s="99"/>
       <c r="C47" s="100"/>
       <c r="D47" s="92" t="s">
-        <v>190</v>
+        <v>280</v>
       </c>
       <c r="E47" s="100" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F47" s="101"/>
       <c r="G47" s="101"/>
@@ -10187,12 +9990,8 @@
       <c r="I47" s="81" t="s">
         <v>118</v>
       </c>
-      <c r="J47" s="82" t="s">
-        <v>283</v>
-      </c>
-      <c r="K47" s="83" t="s">
-        <v>285</v>
-      </c>
+      <c r="J47" s="82"/>
+      <c r="K47" s="83"/>
       <c r="L47" s="102"/>
       <c r="M47" s="96"/>
       <c r="N47" s="105"/>
@@ -10235,21 +10034,19 @@
       <c r="B48" s="99"/>
       <c r="C48" s="100"/>
       <c r="D48" s="92" t="s">
-        <v>191</v>
+        <v>281</v>
       </c>
       <c r="E48" s="100" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F48" s="101"/>
       <c r="G48" s="101"/>
       <c r="H48" s="101"/>
-      <c r="I48" s="81"/>
-      <c r="J48" s="82" t="s">
-        <v>283</v>
-      </c>
-      <c r="K48" s="83" t="s">
-        <v>285</v>
-      </c>
+      <c r="I48" s="81" t="s">
+        <v>118</v>
+      </c>
+      <c r="J48" s="82"/>
+      <c r="K48" s="83"/>
       <c r="L48" s="102"/>
       <c r="M48" s="96"/>
       <c r="N48" s="105"/>
@@ -10269,10 +10066,10 @@
       <c r="AB48" s="96"/>
       <c r="AC48" s="96"/>
       <c r="AD48" s="96"/>
-      <c r="AE48" s="96"/>
-      <c r="AF48" s="96"/>
-      <c r="AG48" s="96"/>
-      <c r="AH48" s="96"/>
+      <c r="AE48" s="138"/>
+      <c r="AF48" s="138"/>
+      <c r="AG48" s="138"/>
+      <c r="AH48" s="138"/>
       <c r="AI48" s="96"/>
       <c r="AJ48" s="96"/>
       <c r="AK48" s="96"/>
@@ -10289,24 +10086,20 @@
     </row>
     <row r="49" spans="1:47" s="95" customFormat="1">
       <c r="A49" s="98"/>
-      <c r="B49" s="99" t="s">
-        <v>192</v>
-      </c>
-      <c r="C49" s="100" t="s">
-        <v>193</v>
-      </c>
-      <c r="D49" s="92"/>
-      <c r="E49" s="100"/>
+      <c r="B49" s="99"/>
+      <c r="C49" s="100"/>
+      <c r="D49" s="92" t="s">
+        <v>282</v>
+      </c>
+      <c r="E49" s="100" t="s">
+        <v>185</v>
+      </c>
       <c r="F49" s="101"/>
       <c r="G49" s="101"/>
       <c r="H49" s="101"/>
       <c r="I49" s="81"/>
-      <c r="J49" s="82" t="s">
-        <v>283</v>
-      </c>
-      <c r="K49" s="83" t="s">
-        <v>285</v>
-      </c>
+      <c r="J49" s="82"/>
+      <c r="K49" s="83"/>
       <c r="L49" s="102"/>
       <c r="M49" s="96"/>
       <c r="N49" s="105"/>
@@ -10346,26 +10139,20 @@
     </row>
     <row r="50" spans="1:47" s="95" customFormat="1">
       <c r="A50" s="98"/>
-      <c r="B50" s="99"/>
-      <c r="C50" s="100"/>
-      <c r="D50" s="92" t="s">
-        <v>194</v>
-      </c>
-      <c r="E50" s="100" t="s">
-        <v>195</v>
-      </c>
+      <c r="B50" s="99" t="s">
+        <v>190</v>
+      </c>
+      <c r="C50" s="100" t="s">
+        <v>191</v>
+      </c>
+      <c r="D50" s="92"/>
+      <c r="E50" s="100"/>
       <c r="F50" s="101"/>
       <c r="G50" s="101"/>
       <c r="H50" s="101"/>
-      <c r="I50" s="81" t="s">
-        <v>120</v>
-      </c>
-      <c r="J50" s="82" t="s">
-        <v>283</v>
-      </c>
-      <c r="K50" s="83" t="s">
-        <v>285</v>
-      </c>
+      <c r="I50" s="81"/>
+      <c r="J50" s="82"/>
+      <c r="K50" s="83"/>
       <c r="L50" s="102"/>
       <c r="M50" s="96"/>
       <c r="N50" s="105"/>
@@ -10385,10 +10172,10 @@
       <c r="AB50" s="96"/>
       <c r="AC50" s="96"/>
       <c r="AD50" s="96"/>
-      <c r="AE50" s="137"/>
-      <c r="AF50" s="137"/>
-      <c r="AG50" s="137"/>
-      <c r="AH50" s="137"/>
+      <c r="AE50" s="96"/>
+      <c r="AF50" s="96"/>
+      <c r="AG50" s="96"/>
+      <c r="AH50" s="96"/>
       <c r="AI50" s="96"/>
       <c r="AJ50" s="96"/>
       <c r="AK50" s="96"/>
@@ -10408,10 +10195,10 @@
       <c r="B51" s="99"/>
       <c r="C51" s="100"/>
       <c r="D51" s="92" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="E51" s="100" t="s">
-        <v>196</v>
+        <v>291</v>
       </c>
       <c r="F51" s="101"/>
       <c r="G51" s="101"/>
@@ -10419,12 +10206,8 @@
       <c r="I51" s="81" t="s">
         <v>120</v>
       </c>
-      <c r="J51" s="82" t="s">
-        <v>283</v>
-      </c>
-      <c r="K51" s="83" t="s">
-        <v>285</v>
-      </c>
+      <c r="J51" s="82"/>
+      <c r="K51" s="83"/>
       <c r="L51" s="102"/>
       <c r="M51" s="96"/>
       <c r="N51" s="105"/>
@@ -10467,10 +10250,10 @@
       <c r="B52" s="99"/>
       <c r="C52" s="100"/>
       <c r="D52" s="92" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E52" s="100" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F52" s="101"/>
       <c r="G52" s="101"/>
@@ -10478,12 +10261,8 @@
       <c r="I52" s="81" t="s">
         <v>120</v>
       </c>
-      <c r="J52" s="82" t="s">
-        <v>283</v>
-      </c>
-      <c r="K52" s="83" t="s">
-        <v>285</v>
-      </c>
+      <c r="J52" s="82"/>
+      <c r="K52" s="83"/>
       <c r="L52" s="102"/>
       <c r="M52" s="96"/>
       <c r="N52" s="105"/>
@@ -10524,10 +10303,10 @@
     <row r="53" spans="1:47" s="95" customFormat="1">
       <c r="A53" s="98"/>
       <c r="B53" s="99" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C53" s="100" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D53" s="92"/>
       <c r="E53" s="100"/>
@@ -10535,12 +10314,8 @@
       <c r="G53" s="101"/>
       <c r="H53" s="101"/>
       <c r="I53" s="81"/>
-      <c r="J53" s="82" t="s">
-        <v>283</v>
-      </c>
-      <c r="K53" s="83" t="s">
-        <v>285</v>
-      </c>
+      <c r="J53" s="82"/>
+      <c r="K53" s="83"/>
       <c r="L53" s="102"/>
       <c r="M53" s="96"/>
       <c r="N53" s="105"/>
@@ -10564,8 +10339,8 @@
       <c r="AF53" s="96"/>
       <c r="AG53" s="96"/>
       <c r="AH53" s="96"/>
-      <c r="AI53" s="96"/>
-      <c r="AJ53" s="96"/>
+      <c r="AI53" s="140"/>
+      <c r="AJ53" s="140"/>
       <c r="AK53" s="96"/>
       <c r="AL53" s="96"/>
       <c r="AM53" s="96"/>
@@ -10583,10 +10358,10 @@
       <c r="B54" s="99"/>
       <c r="C54" s="100"/>
       <c r="D54" s="92" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E54" s="100" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F54" s="101"/>
       <c r="G54" s="101"/>
@@ -10595,10 +10370,10 @@
         <v>119</v>
       </c>
       <c r="J54" s="82" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="K54" s="83" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="L54" s="102"/>
       <c r="M54" s="96"/>
@@ -10619,13 +10394,13 @@
       <c r="AB54" s="96"/>
       <c r="AC54" s="96"/>
       <c r="AD54" s="96"/>
-      <c r="AE54" s="107"/>
-      <c r="AF54" s="107"/>
-      <c r="AG54" s="107"/>
-      <c r="AH54" s="107"/>
+      <c r="AE54" s="105"/>
+      <c r="AF54" s="105"/>
+      <c r="AG54" s="96"/>
+      <c r="AH54" s="96"/>
       <c r="AI54" s="96"/>
-      <c r="AJ54" s="96"/>
-      <c r="AK54" s="96"/>
+      <c r="AJ54" s="140"/>
+      <c r="AK54" s="140"/>
       <c r="AL54" s="96"/>
       <c r="AM54" s="96"/>
       <c r="AN54" s="96"/>
@@ -10642,10 +10417,10 @@
       <c r="B55" s="99"/>
       <c r="C55" s="100"/>
       <c r="D55" s="92" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E55" s="100" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F55" s="101"/>
       <c r="G55" s="101"/>
@@ -10654,10 +10429,10 @@
         <v>119</v>
       </c>
       <c r="J55" s="82" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="K55" s="83" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="L55" s="102"/>
       <c r="M55" s="96"/>
@@ -10678,10 +10453,10 @@
       <c r="AB55" s="96"/>
       <c r="AC55" s="96"/>
       <c r="AD55" s="96"/>
-      <c r="AE55" s="107"/>
-      <c r="AF55" s="107"/>
-      <c r="AG55" s="107"/>
-      <c r="AH55" s="107"/>
+      <c r="AE55" s="105"/>
+      <c r="AF55" s="105"/>
+      <c r="AG55" s="96"/>
+      <c r="AH55" s="96"/>
       <c r="AI55" s="96"/>
       <c r="AJ55" s="96"/>
       <c r="AK55" s="96"/>
@@ -10701,10 +10476,10 @@
       <c r="B56" s="99"/>
       <c r="C56" s="100"/>
       <c r="D56" s="92" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E56" s="100" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F56" s="101"/>
       <c r="G56" s="101"/>
@@ -10712,12 +10487,8 @@
       <c r="I56" s="81" t="s">
         <v>118</v>
       </c>
-      <c r="J56" s="82" t="s">
-        <v>283</v>
-      </c>
-      <c r="K56" s="83" t="s">
-        <v>285</v>
-      </c>
+      <c r="J56" s="82"/>
+      <c r="K56" s="83"/>
       <c r="L56" s="102"/>
       <c r="M56" s="96"/>
       <c r="N56" s="105"/>
@@ -10760,10 +10531,10 @@
       <c r="B57" s="99"/>
       <c r="C57" s="100"/>
       <c r="D57" s="92" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E57" s="100" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F57" s="101"/>
       <c r="G57" s="101"/>
@@ -10771,12 +10542,8 @@
       <c r="I57" s="81" t="s">
         <v>118</v>
       </c>
-      <c r="J57" s="82" t="s">
-        <v>283</v>
-      </c>
-      <c r="K57" s="83" t="s">
-        <v>285</v>
-      </c>
+      <c r="J57" s="82"/>
+      <c r="K57" s="83"/>
       <c r="L57" s="102"/>
       <c r="M57" s="96"/>
       <c r="N57" s="105"/>
@@ -10817,10 +10584,10 @@
     <row r="58" spans="1:47" s="95" customFormat="1">
       <c r="A58" s="98"/>
       <c r="B58" s="99" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C58" s="100" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D58" s="92"/>
       <c r="E58" s="100"/>
@@ -10828,12 +10595,8 @@
       <c r="G58" s="101"/>
       <c r="H58" s="101"/>
       <c r="I58" s="81"/>
-      <c r="J58" s="82" t="s">
-        <v>283</v>
-      </c>
-      <c r="K58" s="83" t="s">
-        <v>285</v>
-      </c>
+      <c r="J58" s="82"/>
+      <c r="K58" s="83"/>
       <c r="L58" s="102"/>
       <c r="M58" s="96"/>
       <c r="N58" s="105"/>
@@ -10876,10 +10639,10 @@
       <c r="B59" s="99"/>
       <c r="C59" s="100"/>
       <c r="D59" s="92" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E59" s="100" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F59" s="101"/>
       <c r="G59" s="101"/>
@@ -10887,12 +10650,8 @@
       <c r="I59" s="81" t="s">
         <v>118</v>
       </c>
-      <c r="J59" s="82" t="s">
-        <v>283</v>
-      </c>
-      <c r="K59" s="83" t="s">
-        <v>285</v>
-      </c>
+      <c r="J59" s="82"/>
+      <c r="K59" s="83"/>
       <c r="L59" s="102"/>
       <c r="M59" s="96"/>
       <c r="N59" s="105"/>
@@ -10936,7 +10695,7 @@
       <c r="C60" s="100"/>
       <c r="D60" s="92"/>
       <c r="E60" s="100" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F60" s="101"/>
       <c r="G60" s="101"/>
@@ -10944,12 +10703,8 @@
       <c r="I60" s="81" t="s">
         <v>118</v>
       </c>
-      <c r="J60" s="82" t="s">
-        <v>283</v>
-      </c>
-      <c r="K60" s="83" t="s">
-        <v>285</v>
-      </c>
+      <c r="J60" s="82"/>
+      <c r="K60" s="83"/>
       <c r="L60" s="102"/>
       <c r="M60" s="96"/>
       <c r="N60" s="105"/>
@@ -10990,10 +10745,10 @@
     <row r="61" spans="1:47" s="95" customFormat="1">
       <c r="A61" s="98"/>
       <c r="B61" s="99" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C61" s="100" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D61" s="92"/>
       <c r="E61" s="100"/>
@@ -11001,12 +10756,8 @@
       <c r="G61" s="101"/>
       <c r="H61" s="101"/>
       <c r="I61" s="81"/>
-      <c r="J61" s="82" t="s">
-        <v>283</v>
-      </c>
-      <c r="K61" s="83" t="s">
-        <v>285</v>
-      </c>
+      <c r="J61" s="82"/>
+      <c r="K61" s="83"/>
       <c r="L61" s="102"/>
       <c r="M61" s="96"/>
       <c r="N61" s="105"/>
@@ -11049,10 +10800,10 @@
       <c r="B62" s="99"/>
       <c r="C62" s="100"/>
       <c r="D62" s="92" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E62" s="100" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F62" s="101"/>
       <c r="G62" s="101"/>
@@ -11060,12 +10811,8 @@
       <c r="I62" s="81" t="s">
         <v>119</v>
       </c>
-      <c r="J62" s="82" t="s">
-        <v>283</v>
-      </c>
-      <c r="K62" s="83" t="s">
-        <v>285</v>
-      </c>
+      <c r="J62" s="82"/>
+      <c r="K62" s="83"/>
       <c r="L62" s="102"/>
       <c r="M62" s="96"/>
       <c r="N62" s="105"/>
@@ -11109,7 +10856,7 @@
       <c r="C63" s="100"/>
       <c r="D63" s="92"/>
       <c r="E63" s="100" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F63" s="101"/>
       <c r="G63" s="101"/>
@@ -11117,12 +10864,8 @@
       <c r="I63" s="81" t="s">
         <v>119</v>
       </c>
-      <c r="J63" s="82" t="s">
-        <v>283</v>
-      </c>
-      <c r="K63" s="83" t="s">
-        <v>285</v>
-      </c>
+      <c r="J63" s="82"/>
+      <c r="K63" s="83"/>
       <c r="L63" s="102"/>
       <c r="M63" s="96"/>
       <c r="N63" s="105"/>
@@ -11166,7 +10909,7 @@
       <c r="C64" s="100"/>
       <c r="D64" s="92"/>
       <c r="E64" s="100" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F64" s="101"/>
       <c r="G64" s="101"/>
@@ -11174,12 +10917,8 @@
       <c r="I64" s="81" t="s">
         <v>120</v>
       </c>
-      <c r="J64" s="82" t="s">
-        <v>283</v>
-      </c>
-      <c r="K64" s="83" t="s">
-        <v>285</v>
-      </c>
+      <c r="J64" s="82"/>
+      <c r="K64" s="83"/>
       <c r="L64" s="102"/>
       <c r="M64" s="96"/>
       <c r="N64" s="105"/>
@@ -11223,7 +10962,7 @@
       <c r="C65" s="100"/>
       <c r="D65" s="92"/>
       <c r="E65" s="100" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F65" s="101"/>
       <c r="G65" s="101"/>
@@ -11231,12 +10970,8 @@
       <c r="I65" s="81" t="s">
         <v>120</v>
       </c>
-      <c r="J65" s="82" t="s">
-        <v>283</v>
-      </c>
-      <c r="K65" s="83" t="s">
-        <v>285</v>
-      </c>
+      <c r="J65" s="82"/>
+      <c r="K65" s="83"/>
       <c r="L65" s="102"/>
       <c r="M65" s="96"/>
       <c r="N65" s="105"/>
@@ -11280,7 +11015,7 @@
       <c r="C66" s="100"/>
       <c r="D66" s="92"/>
       <c r="E66" s="100" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F66" s="101"/>
       <c r="G66" s="101"/>
@@ -11288,12 +11023,8 @@
       <c r="I66" s="81" t="s">
         <v>119</v>
       </c>
-      <c r="J66" s="82" t="s">
-        <v>283</v>
-      </c>
-      <c r="K66" s="83" t="s">
-        <v>285</v>
-      </c>
+      <c r="J66" s="82"/>
+      <c r="K66" s="83"/>
       <c r="L66" s="102"/>
       <c r="M66" s="96"/>
       <c r="N66" s="105"/>
@@ -11337,7 +11068,7 @@
       <c r="C67" s="100"/>
       <c r="D67" s="92"/>
       <c r="E67" s="100" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F67" s="101"/>
       <c r="G67" s="101"/>
@@ -11345,12 +11076,8 @@
       <c r="I67" s="81" t="s">
         <v>118</v>
       </c>
-      <c r="J67" s="82" t="s">
-        <v>283</v>
-      </c>
-      <c r="K67" s="83" t="s">
-        <v>285</v>
-      </c>
+      <c r="J67" s="82"/>
+      <c r="K67" s="83"/>
       <c r="L67" s="102"/>
       <c r="M67" s="96"/>
       <c r="N67" s="105"/>
@@ -11394,18 +11121,14 @@
       <c r="C68" s="100"/>
       <c r="D68" s="92"/>
       <c r="E68" s="100" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F68" s="101"/>
       <c r="G68" s="101"/>
       <c r="H68" s="101"/>
       <c r="I68" s="81"/>
-      <c r="J68" s="82" t="s">
-        <v>283</v>
-      </c>
-      <c r="K68" s="83" t="s">
-        <v>285</v>
-      </c>
+      <c r="J68" s="82"/>
+      <c r="K68" s="83"/>
       <c r="L68" s="102"/>
       <c r="M68" s="96"/>
       <c r="N68" s="105"/>
@@ -11610,7 +11333,7 @@
         <v>109</v>
       </c>
       <c r="E72" s="100" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F72" s="101"/>
       <c r="G72" s="101"/>
@@ -11662,10 +11385,10 @@
       <c r="B73" s="99"/>
       <c r="C73" s="100"/>
       <c r="D73" s="92" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="E73" s="100" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F73" s="101"/>
       <c r="G73" s="101"/>
@@ -11717,10 +11440,10 @@
       <c r="B74" s="99"/>
       <c r="C74" s="100"/>
       <c r="D74" s="92" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E74" s="100" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F74" s="101"/>
       <c r="G74" s="101"/>
@@ -11772,10 +11495,10 @@
       <c r="B75" s="99"/>
       <c r="C75" s="100"/>
       <c r="D75" s="92" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="E75" s="100" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F75" s="101"/>
       <c r="G75" s="101"/>
@@ -11827,10 +11550,10 @@
       <c r="B76" s="99"/>
       <c r="C76" s="100"/>
       <c r="D76" s="92" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E76" s="100" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F76" s="101"/>
       <c r="G76" s="101"/>
@@ -11882,10 +11605,10 @@
       <c r="B77" s="99"/>
       <c r="C77" s="100"/>
       <c r="D77" s="92" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="E77" s="100" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="F77" s="101"/>
       <c r="G77" s="101"/>
@@ -11935,10 +11658,10 @@
       <c r="B78" s="99"/>
       <c r="C78" s="100"/>
       <c r="D78" s="92" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E78" s="100" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F78" s="101"/>
       <c r="G78" s="101"/>
@@ -11988,10 +11711,10 @@
       <c r="B79" s="99"/>
       <c r="C79" s="100"/>
       <c r="D79" s="92" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E79" s="100" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="F79" s="101"/>
       <c r="G79" s="101"/>
@@ -12039,10 +11762,10 @@
     <row r="80" spans="1:47" s="95" customFormat="1">
       <c r="A80" s="98"/>
       <c r="B80" s="99" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C80" s="100" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D80" s="92"/>
       <c r="E80" s="100"/>
@@ -12094,10 +11817,10 @@
       <c r="B81" s="99"/>
       <c r="C81" s="100"/>
       <c r="D81" s="92" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="E81" s="100" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="F81" s="101"/>
       <c r="G81" s="101"/>
@@ -12149,10 +11872,10 @@
       <c r="B82" s="99"/>
       <c r="C82" s="100"/>
       <c r="D82" s="92" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E82" s="100" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F82" s="101"/>
       <c r="G82" s="101"/>
@@ -12204,10 +11927,10 @@
       <c r="B83" s="99"/>
       <c r="C83" s="100"/>
       <c r="D83" s="92" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="E83" s="100" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="F83" s="101"/>
       <c r="G83" s="101"/>
@@ -12257,10 +11980,10 @@
     <row r="84" spans="1:47" s="95" customFormat="1">
       <c r="A84" s="98"/>
       <c r="B84" s="99" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C84" s="100" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D84" s="92"/>
       <c r="E84" s="100"/>
@@ -12312,10 +12035,10 @@
       <c r="B85" s="99"/>
       <c r="C85" s="100"/>
       <c r="D85" s="92" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E85" s="100" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F85" s="101"/>
       <c r="G85" s="101"/>
@@ -12367,10 +12090,10 @@
       <c r="B86" s="99"/>
       <c r="C86" s="100"/>
       <c r="D86" s="92" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="E86" s="100" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F86" s="101"/>
       <c r="G86" s="101"/>
@@ -12422,10 +12145,10 @@
       <c r="B87" s="99"/>
       <c r="C87" s="100"/>
       <c r="D87" s="92" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E87" s="100" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="F87" s="101"/>
       <c r="G87" s="101"/>
@@ -12475,10 +12198,10 @@
     <row r="88" spans="1:47" s="95" customFormat="1">
       <c r="A88" s="98"/>
       <c r="B88" s="99" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C88" s="100" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D88" s="92"/>
       <c r="E88" s="100"/>
@@ -12530,10 +12253,10 @@
       <c r="B89" s="99"/>
       <c r="C89" s="100"/>
       <c r="D89" s="92" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="E89" s="100" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="F89" s="101"/>
       <c r="G89" s="101"/>
@@ -12585,10 +12308,10 @@
       <c r="B90" s="99"/>
       <c r="C90" s="100"/>
       <c r="D90" s="92" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E90" s="100" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F90" s="101"/>
       <c r="G90" s="101"/>
@@ -12638,10 +12361,10 @@
     <row r="91" spans="1:47" s="95" customFormat="1">
       <c r="A91" s="98"/>
       <c r="B91" s="99" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C91" s="100" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D91" s="92"/>
       <c r="E91" s="100"/>
@@ -12693,10 +12416,10 @@
       <c r="B92" s="99"/>
       <c r="C92" s="100"/>
       <c r="D92" s="92" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="E92" s="100" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="F92" s="101"/>
       <c r="G92" s="101"/>
@@ -12748,10 +12471,10 @@
       <c r="B93" s="99"/>
       <c r="C93" s="100"/>
       <c r="D93" s="92" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="E93" s="100" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F93" s="101"/>
       <c r="G93" s="101"/>
@@ -12801,10 +12524,10 @@
     <row r="94" spans="1:47" s="95" customFormat="1">
       <c r="A94" s="98"/>
       <c r="B94" s="99" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C94" s="100" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D94" s="92"/>
       <c r="E94" s="100"/>
@@ -12856,10 +12579,10 @@
       <c r="B95" s="99"/>
       <c r="C95" s="100"/>
       <c r="D95" s="92" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="E95" s="100" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F95" s="101"/>
       <c r="G95" s="101"/>
@@ -12911,10 +12634,10 @@
       <c r="B96" s="99"/>
       <c r="C96" s="100"/>
       <c r="D96" s="92" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="E96" s="100" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="F96" s="101"/>
       <c r="G96" s="101"/>
@@ -12964,10 +12687,10 @@
     <row r="97" spans="1:47" s="95" customFormat="1">
       <c r="A97" s="98"/>
       <c r="B97" s="99" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C97" s="100" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D97" s="92"/>
       <c r="E97" s="100"/>
@@ -13019,10 +12742,10 @@
       <c r="B98" s="99"/>
       <c r="C98" s="100"/>
       <c r="D98" s="92" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="E98" s="100" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F98" s="101"/>
       <c r="G98" s="101"/>
@@ -13074,10 +12797,10 @@
       <c r="B99" s="99"/>
       <c r="C99" s="100"/>
       <c r="D99" s="92" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E99" s="100" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="F99" s="101"/>
       <c r="G99" s="101"/>
@@ -13129,10 +12852,10 @@
       <c r="B100" s="99"/>
       <c r="C100" s="100"/>
       <c r="D100" s="92" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="E100" s="100" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F100" s="101"/>
       <c r="G100" s="101"/>
@@ -13180,10 +12903,10 @@
     <row r="101" spans="1:47" s="95" customFormat="1">
       <c r="A101" s="98"/>
       <c r="B101" s="99" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C101" s="100" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D101" s="92"/>
       <c r="E101" s="100"/>
@@ -13235,10 +12958,10 @@
       <c r="B102" s="99"/>
       <c r="C102" s="100"/>
       <c r="D102" s="92" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E102" s="100" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F102" s="101"/>
       <c r="G102" s="101"/>
@@ -13289,7 +13012,7 @@
       <c r="C103" s="100"/>
       <c r="D103" s="92"/>
       <c r="E103" s="100" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="F103" s="101"/>
       <c r="G103" s="101"/>
@@ -13340,7 +13063,7 @@
       <c r="C104" s="100"/>
       <c r="D104" s="92"/>
       <c r="E104" s="100" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F104" s="101"/>
       <c r="G104" s="101"/>
@@ -13391,7 +13114,7 @@
       <c r="C105" s="100"/>
       <c r="D105" s="92"/>
       <c r="E105" s="100" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="F105" s="101"/>
       <c r="G105" s="101"/>
@@ -13858,11 +13581,11 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="M7:S7"/>
-    <mergeCell ref="T7:Z7"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
     <mergeCell ref="AA7:AG7"/>
     <mergeCell ref="AO7:AU7"/>
     <mergeCell ref="AH7:AN7"/>
@@ -13876,354 +13599,272 @@
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="M6:AG6"/>
     <mergeCell ref="AH6:AU6"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="M7:S7"/>
+    <mergeCell ref="T7:Z7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="M8:AU8">
-    <cfRule type="expression" dxfId="107" priority="539">
+    <cfRule type="expression" dxfId="81" priority="552">
       <formula>WEEKDAY(M$8)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="541">
+    <cfRule type="expression" dxfId="80" priority="554">
       <formula>WEEKDAY(M$8)=7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M9:AU9">
-    <cfRule type="expression" dxfId="105" priority="538">
+    <cfRule type="expression" dxfId="79" priority="551">
       <formula>WEEKDAY(M$9)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="540">
+    <cfRule type="expression" dxfId="78" priority="553">
       <formula>WEEKDAY(M$9)=7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M11:AU12 M16:AU27 M29:AU33 M35:AU35 M70:AU105 M107:AU109 M111:AU113 M39:AU39 M48:AU49 M58:AU58 M43:AU43 M40:AD42 AI40:AU42 M44:AD47 AI44:AU47 M53:AU53 M50:AD52 AI50:AU52 M54:AD57 AI54:AU57 M68:AU68 M59:AD67 AI59:AU67 M36:AD38 AI36:AU38">
-    <cfRule type="expression" dxfId="103" priority="287">
+  <conditionalFormatting sqref="M11:AU12 M16:AU27 M29:AU33 M35:AU35 M39:AU39 M49:AU50 M43:AU43 M40:AD42 AI40:AU42 M44:AD48 AI44:AU48 M36:AD38 AI36:AU38 M70:AU105 M107:AU109 M111:AU113 M58:AU58 M53:AU53 M51:AD52 AI51:AU52 M54:AD57 M68:AU68 M59:AD67 AI59:AU67 AI54:AU57 AG61:AH61 AG54:AH55">
+    <cfRule type="expression" dxfId="77" priority="300">
       <formula>WEEKDAY(M$9)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="288">
+    <cfRule type="expression" dxfId="76" priority="301">
       <formula>WEEKDAY(M$9)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="289">
+    <cfRule type="expression" dxfId="75" priority="302">
       <formula xml:space="preserve"> AND(M$9 &gt;= $J11, M$9 &lt;= $K11, $I11 = "000")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="290">
+    <cfRule type="expression" dxfId="74" priority="303">
       <formula xml:space="preserve"> AND(M$9 &gt;= $J11, M$9 &lt;= $K11, $I11 = "000")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="351">
+    <cfRule type="expression" dxfId="73" priority="364">
       <formula xml:space="preserve"> AND(M$9 &gt;= $J11, M$9 &lt;= $K11, $I11 = "000")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="526">
+    <cfRule type="expression" dxfId="72" priority="539">
       <formula xml:space="preserve"> AND(M$9 &gt;= $J11, M$9 &lt;= $K11, $I11 = "000")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="527">
+    <cfRule type="expression" dxfId="71" priority="540">
       <formula xml:space="preserve"> AND(M$9 &gt;= $J11, M$9 &lt;= $K11, $I11 = "000")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="528">
+    <cfRule type="expression" dxfId="70" priority="541">
       <formula xml:space="preserve"> AND(M$9 &gt;= $J11, M$9 &lt;= $K11, $I11 = "000")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="95" priority="529">
+    <cfRule type="expression" dxfId="69" priority="542">
       <formula xml:space="preserve"> AND(M$9 &gt;= $J11, M$9 &lt;= $K11, $I11 = "000")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="531">
+    <cfRule type="expression" dxfId="68" priority="544">
       <formula xml:space="preserve"> AND(M$9 &gt;= $J11, M$9 &lt;= $K11, $I11 = "000")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="532">
+    <cfRule type="expression" dxfId="67" priority="545">
       <formula xml:space="preserve"> AND(M$9 &gt;= $J11, M$9 &lt;= $K11, $I11 = "000")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="533">
+    <cfRule type="expression" dxfId="66" priority="546">
       <formula xml:space="preserve"> AND(M$9 &gt;= $J11, M$9 &lt;= $K11, $I11 = "000")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="537">
+    <cfRule type="expression" dxfId="65" priority="550">
       <formula xml:space="preserve"> AND(M$9 &gt;= $J11, M$9 &lt;= $K11, $I11 = "000")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13:AU13">
-    <cfRule type="expression" dxfId="90" priority="555">
+    <cfRule type="expression" dxfId="64" priority="568">
       <formula>WEEKDAY(M$9)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="556">
+    <cfRule type="expression" dxfId="63" priority="569">
       <formula>WEEKDAY(M$9)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="557">
+    <cfRule type="expression" dxfId="62" priority="570">
       <formula xml:space="preserve"> AND(M$9 &gt;= $J15, M$9 &lt;= $K13, $I13 = "000")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="558">
+    <cfRule type="expression" dxfId="61" priority="571">
       <formula xml:space="preserve"> AND(M$9 &gt;= $J15, M$9 &lt;= $K13, $I13 = "000")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="559">
+    <cfRule type="expression" dxfId="60" priority="572">
       <formula xml:space="preserve"> AND(M$9 &gt;= $J15, M$9 &lt;= $K13, $I13 = "000")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="560">
+    <cfRule type="expression" dxfId="59" priority="573">
       <formula xml:space="preserve"> AND(M$9 &gt;= $J15, M$9 &lt;= $K13, $I13 = "000")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="561">
+    <cfRule type="expression" dxfId="58" priority="574">
       <formula xml:space="preserve"> AND(M$9 &gt;= $J15, M$9 &lt;= $K13, $I13 = "000")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="562">
+    <cfRule type="expression" dxfId="57" priority="575">
       <formula xml:space="preserve"> AND(M$9 &gt;= $J15, M$9 &lt;= $K13, $I13 = "000")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="563">
+    <cfRule type="expression" dxfId="56" priority="576">
       <formula xml:space="preserve"> AND(M$9 &gt;= $J15, M$9 &lt;= $K13, $I13 = "000")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="564">
+    <cfRule type="expression" dxfId="55" priority="577">
       <formula xml:space="preserve"> AND(M$9 &gt;= $J15, M$9 &lt;= $K13, $I13 = "000")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="565">
+    <cfRule type="expression" dxfId="54" priority="578">
       <formula xml:space="preserve"> AND(M$9 &gt;= $J15, M$9 &lt;= $K13, $I13 = "000")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="566">
+    <cfRule type="expression" dxfId="53" priority="579">
       <formula xml:space="preserve"> AND(M$9 &gt;= $J15, M$9 &lt;= $K13, $I13 = "000")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="567">
+    <cfRule type="expression" dxfId="52" priority="580">
       <formula xml:space="preserve"> AND(M$9 &gt;= $J15, M$9 &lt;= $K13, $I13 = "000")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M15:AU15">
-    <cfRule type="expression" dxfId="77" priority="581">
+    <cfRule type="expression" dxfId="51" priority="594">
       <formula>WEEKDAY(M$9)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="582">
+    <cfRule type="expression" dxfId="50" priority="595">
       <formula>WEEKDAY(M$9)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="583">
+    <cfRule type="expression" dxfId="49" priority="596">
       <formula xml:space="preserve"> AND(M$9 &gt;= #REF!, M$9 &lt;= $K15, $I15 = "000")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="584">
+    <cfRule type="expression" dxfId="48" priority="597">
       <formula xml:space="preserve"> AND(M$9 &gt;= #REF!, M$9 &lt;= $K15, $I15 = "000")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="585">
+    <cfRule type="expression" dxfId="47" priority="598">
       <formula xml:space="preserve"> AND(M$9 &gt;= #REF!, M$9 &lt;= $K15, $I15 = "000")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="586">
+    <cfRule type="expression" dxfId="46" priority="599">
       <formula xml:space="preserve"> AND(M$9 &gt;= #REF!, M$9 &lt;= $K15, $I15 = "000")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="587">
+    <cfRule type="expression" dxfId="45" priority="600">
       <formula xml:space="preserve"> AND(M$9 &gt;= #REF!, M$9 &lt;= $K15, $I15 = "000")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="588">
+    <cfRule type="expression" dxfId="44" priority="601">
       <formula xml:space="preserve"> AND(M$9 &gt;= #REF!, M$9 &lt;= $K15, $I15 = "000")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="589">
+    <cfRule type="expression" dxfId="43" priority="602">
       <formula xml:space="preserve"> AND(M$9 &gt;= #REF!, M$9 &lt;= $K15, $I15 = "000")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="590">
+    <cfRule type="expression" dxfId="42" priority="603">
       <formula xml:space="preserve"> AND(M$9 &gt;= #REF!, M$9 &lt;= $K15, $I15 = "000")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="591">
+    <cfRule type="expression" dxfId="41" priority="604">
       <formula xml:space="preserve"> AND(M$9 &gt;= #REF!, M$9 &lt;= $K15, $I15 = "000")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="592">
+    <cfRule type="expression" dxfId="40" priority="605">
       <formula xml:space="preserve"> AND(M$9 &gt;= #REF!, M$9 &lt;= $K15, $I15 = "000")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="593">
+    <cfRule type="expression" dxfId="39" priority="606">
       <formula xml:space="preserve"> AND(M$9 &gt;= #REF!, M$9 &lt;= $K15, $I15 = "000")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG61">
-    <cfRule type="expression" dxfId="64" priority="53">
+  <conditionalFormatting sqref="AG36:AH36">
+    <cfRule type="expression" dxfId="38" priority="40">
       <formula>WEEKDAY(AG$9)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="54">
+    <cfRule type="expression" dxfId="37" priority="41">
       <formula>WEEKDAY(AG$9)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="55">
-      <formula xml:space="preserve"> AND(AG$9 &gt;= $J61, AG$9 &lt;= $K61, $I61 = "000")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="61" priority="56">
-      <formula xml:space="preserve"> AND(AG$9 &gt;= $J61, AG$9 &lt;= $K61, $I61 = "000")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="60" priority="57">
-      <formula xml:space="preserve"> AND(AG$9 &gt;= $J61, AG$9 &lt;= $K61, $I61 = "000")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="59" priority="58">
-      <formula xml:space="preserve"> AND(AG$9 &gt;= $J61, AG$9 &lt;= $K61, $I61 = "000")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="58" priority="59">
-      <formula xml:space="preserve"> AND(AG$9 &gt;= $J61, AG$9 &lt;= $K61, $I61 = "000")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="57" priority="60">
-      <formula xml:space="preserve"> AND(AG$9 &gt;= $J61, AG$9 &lt;= $K61, $I61 = "000")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="56" priority="61">
-      <formula xml:space="preserve"> AND(AG$9 &gt;= $J61, AG$9 &lt;= $K61, $I61 = "000")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="55" priority="62">
-      <formula xml:space="preserve"> AND(AG$9 &gt;= $J61, AG$9 &lt;= $K61, $I61 = "000")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="54" priority="63">
-      <formula xml:space="preserve"> AND(AG$9 &gt;= $J61, AG$9 &lt;= $K61, $I61 = "000")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="53" priority="64">
-      <formula xml:space="preserve"> AND(AG$9 &gt;= $J61, AG$9 &lt;= $K61, $I61 = "000")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="52" priority="65">
-      <formula xml:space="preserve"> AND(AG$9 &gt;= $J61, AG$9 &lt;= $K61, $I61 = "000")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH61">
-    <cfRule type="expression" dxfId="51" priority="40">
-      <formula>WEEKDAY(AH$9)=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="50" priority="41">
-      <formula>WEEKDAY(AH$9)=7</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="49" priority="42">
-      <formula xml:space="preserve"> AND(AH$9 &gt;= $J61, AH$9 &lt;= $K61, $I61 = "000")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="48" priority="43">
-      <formula xml:space="preserve"> AND(AH$9 &gt;= $J61, AH$9 &lt;= $K61, $I61 = "000")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="47" priority="44">
-      <formula xml:space="preserve"> AND(AH$9 &gt;= $J61, AH$9 &lt;= $K61, $I61 = "000")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="46" priority="45">
-      <formula xml:space="preserve"> AND(AH$9 &gt;= $J61, AH$9 &lt;= $K61, $I61 = "000")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="45" priority="46">
-      <formula xml:space="preserve"> AND(AH$9 &gt;= $J61, AH$9 &lt;= $K61, $I61 = "000")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="44" priority="47">
-      <formula xml:space="preserve"> AND(AH$9 &gt;= $J61, AH$9 &lt;= $K61, $I61 = "000")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="43" priority="48">
-      <formula xml:space="preserve"> AND(AH$9 &gt;= $J61, AH$9 &lt;= $K61, $I61 = "000")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="49">
-      <formula xml:space="preserve"> AND(AH$9 &gt;= $J61, AH$9 &lt;= $K61, $I61 = "000")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="41" priority="50">
-      <formula xml:space="preserve"> AND(AH$9 &gt;= $J61, AH$9 &lt;= $K61, $I61 = "000")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="40" priority="51">
-      <formula xml:space="preserve"> AND(AH$9 &gt;= $J61, AH$9 &lt;= $K61, $I61 = "000")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="39" priority="52">
-      <formula xml:space="preserve"> AND(AH$9 &gt;= $J61, AH$9 &lt;= $K61, $I61 = "000")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG36:AH36">
-    <cfRule type="expression" dxfId="38" priority="27">
-      <formula>WEEKDAY(AG$9)=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="37" priority="28">
-      <formula>WEEKDAY(AG$9)=7</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="29">
+    <cfRule type="expression" dxfId="36" priority="42">
       <formula xml:space="preserve"> AND(AG$9 &gt;= $J36, AG$9 &lt;= $K36, $I36 = "000")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="30">
+    <cfRule type="expression" dxfId="35" priority="43">
       <formula xml:space="preserve"> AND(AG$9 &gt;= $J36, AG$9 &lt;= $K36, $I36 = "000")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="31">
+    <cfRule type="expression" dxfId="34" priority="44">
       <formula xml:space="preserve"> AND(AG$9 &gt;= $J36, AG$9 &lt;= $K36, $I36 = "000")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="32">
+    <cfRule type="expression" dxfId="33" priority="45">
       <formula xml:space="preserve"> AND(AG$9 &gt;= $J36, AG$9 &lt;= $K36, $I36 = "000")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="33">
+    <cfRule type="expression" dxfId="32" priority="46">
       <formula xml:space="preserve"> AND(AG$9 &gt;= $J36, AG$9 &lt;= $K36, $I36 = "000")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="34">
+    <cfRule type="expression" dxfId="31" priority="47">
       <formula xml:space="preserve"> AND(AG$9 &gt;= $J36, AG$9 &lt;= $K36, $I36 = "000")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="35">
+    <cfRule type="expression" dxfId="30" priority="48">
       <formula xml:space="preserve"> AND(AG$9 &gt;= $J36, AG$9 &lt;= $K36, $I36 = "000")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="36">
+    <cfRule type="expression" dxfId="29" priority="49">
       <formula xml:space="preserve"> AND(AG$9 &gt;= $J36, AG$9 &lt;= $K36, $I36 = "000")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="37">
+    <cfRule type="expression" dxfId="28" priority="50">
       <formula xml:space="preserve"> AND(AG$9 &gt;= $J36, AG$9 &lt;= $K36, $I36 = "000")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="38">
+    <cfRule type="expression" dxfId="27" priority="51">
       <formula xml:space="preserve"> AND(AG$9 &gt;= $J36, AG$9 &lt;= $K36, $I36 = "000")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="39">
+    <cfRule type="expression" dxfId="26" priority="52">
       <formula xml:space="preserve"> AND(AG$9 &gt;= $J36, AG$9 &lt;= $K36, $I36 = "000")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG37:AH37">
-    <cfRule type="expression" dxfId="25" priority="14">
+    <cfRule type="expression" dxfId="25" priority="27">
       <formula>WEEKDAY(AG$9)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="15">
+    <cfRule type="expression" dxfId="24" priority="28">
       <formula>WEEKDAY(AG$9)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="16">
+    <cfRule type="expression" dxfId="23" priority="29">
       <formula xml:space="preserve"> AND(AG$9 &gt;= $J37, AG$9 &lt;= $K37, $I37 = "000")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="17">
+    <cfRule type="expression" dxfId="22" priority="30">
       <formula xml:space="preserve"> AND(AG$9 &gt;= $J37, AG$9 &lt;= $K37, $I37 = "000")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="18">
+    <cfRule type="expression" dxfId="21" priority="31">
       <formula xml:space="preserve"> AND(AG$9 &gt;= $J37, AG$9 &lt;= $K37, $I37 = "000")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="19">
+    <cfRule type="expression" dxfId="20" priority="32">
       <formula xml:space="preserve"> AND(AG$9 &gt;= $J37, AG$9 &lt;= $K37, $I37 = "000")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="20">
+    <cfRule type="expression" dxfId="19" priority="33">
       <formula xml:space="preserve"> AND(AG$9 &gt;= $J37, AG$9 &lt;= $K37, $I37 = "000")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="21">
+    <cfRule type="expression" dxfId="18" priority="34">
       <formula xml:space="preserve"> AND(AG$9 &gt;= $J37, AG$9 &lt;= $K37, $I37 = "000")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="22">
+    <cfRule type="expression" dxfId="17" priority="35">
       <formula xml:space="preserve"> AND(AG$9 &gt;= $J37, AG$9 &lt;= $K37, $I37 = "000")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="23">
+    <cfRule type="expression" dxfId="16" priority="36">
       <formula xml:space="preserve"> AND(AG$9 &gt;= $J37, AG$9 &lt;= $K37, $I37 = "000")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="24">
+    <cfRule type="expression" dxfId="15" priority="37">
       <formula xml:space="preserve"> AND(AG$9 &gt;= $J37, AG$9 &lt;= $K37, $I37 = "000")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="25">
+    <cfRule type="expression" dxfId="14" priority="38">
       <formula xml:space="preserve"> AND(AG$9 &gt;= $J37, AG$9 &lt;= $K37, $I37 = "000")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="26">
+    <cfRule type="expression" dxfId="13" priority="39">
       <formula xml:space="preserve"> AND(AG$9 &gt;= $J37, AG$9 &lt;= $K37, $I37 = "000")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG38:AH38">
-    <cfRule type="expression" dxfId="12" priority="1">
+    <cfRule type="expression" dxfId="12" priority="14">
       <formula>WEEKDAY(AG$9)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="2">
+    <cfRule type="expression" dxfId="11" priority="15">
       <formula>WEEKDAY(AG$9)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="3">
+    <cfRule type="expression" dxfId="10" priority="16">
       <formula xml:space="preserve"> AND(AG$9 &gt;= $J38, AG$9 &lt;= $K38, $I38 = "000")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="4">
+    <cfRule type="expression" dxfId="9" priority="17">
       <formula xml:space="preserve"> AND(AG$9 &gt;= $J38, AG$9 &lt;= $K38, $I38 = "000")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="5">
+    <cfRule type="expression" dxfId="8" priority="18">
       <formula xml:space="preserve"> AND(AG$9 &gt;= $J38, AG$9 &lt;= $K38, $I38 = "000")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="6">
+    <cfRule type="expression" dxfId="7" priority="19">
       <formula xml:space="preserve"> AND(AG$9 &gt;= $J38, AG$9 &lt;= $K38, $I38 = "000")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="6" priority="20">
       <formula xml:space="preserve"> AND(AG$9 &gt;= $J38, AG$9 &lt;= $K38, $I38 = "000")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="8">
+    <cfRule type="expression" dxfId="5" priority="21">
       <formula xml:space="preserve"> AND(AG$9 &gt;= $J38, AG$9 &lt;= $K38, $I38 = "000")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="9">
+    <cfRule type="expression" dxfId="4" priority="22">
       <formula xml:space="preserve"> AND(AG$9 &gt;= $J38, AG$9 &lt;= $K38, $I38 = "000")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="10">
+    <cfRule type="expression" dxfId="3" priority="23">
       <formula xml:space="preserve"> AND(AG$9 &gt;= $J38, AG$9 &lt;= $K38, $I38 = "000")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="11">
+    <cfRule type="expression" dxfId="2" priority="24">
       <formula xml:space="preserve"> AND(AG$9 &gt;= $J38, AG$9 &lt;= $K38, $I38 = "000")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="12">
+    <cfRule type="expression" dxfId="1" priority="25">
       <formula xml:space="preserve"> AND(AG$9 &gt;= $J38, AG$9 &lt;= $K38, $I38 = "000")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="13">
+    <cfRule type="expression" dxfId="0" priority="26">
       <formula xml:space="preserve"> AND(AG$9 &gt;= $J38, AG$9 &lt;= $K38, $I38 = "000")</formula>
     </cfRule>
   </conditionalFormatting>
